--- a/product-definitions/spreadsheet/flux-components.xlsx
+++ b/product-definitions/spreadsheet/flux-components.xlsx
@@ -14,12 +14,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="231">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -29,12 +41,6 @@
     <t>Proposed name</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>example value</t>
   </si>
   <si>
@@ -71,12 +77,6 @@
     <t>_FillValue</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;</t>
-  </si>
-  <si>
     <t>valid_min</t>
   </si>
   <si>
@@ -119,10 +119,7 @@
     <t>K</t>
   </si>
   <si>
-    <t>licor_temperature</t>
-  </si>
-  <si>
-    <t>Licor Air Temperature (T)</t>
+    <t>Air Temperature (T)</t>
   </si>
   <si>
     <t>cell_methods</t>
@@ -137,7 +134,7 @@
     <t>hPa</t>
   </si>
   <si>
-    <t>Licor  Pressure (P)</t>
+    <t>Air  Pressure (P)</t>
   </si>
   <si>
     <t>mole_concentration_of_carbon_dioxide_in_air</t>
@@ -146,13 +143,13 @@
     <t>mmol m-3</t>
   </si>
   <si>
-    <t>CO2 number concentration</t>
+    <t>CO2 mole concentration</t>
   </si>
   <si>
     <t>mole_concentration_of_water_vapor_in_air</t>
   </si>
   <si>
-    <t>Water Vapour number concentration</t>
+    <t>Water Vapour mole concentration</t>
   </si>
   <si>
     <t>specific_humidity</t>
@@ -182,7 +179,7 @@
     <t>Water Vapour Mass Mixing Ratio (WVMMR)</t>
   </si>
   <si>
-    <t>sonic_temperature_theta</t>
+    <t>sonic_air_temperature_theta</t>
   </si>
   <si>
     <t>Sonic Temperature (Theta) corrected for sidewind and humidity</t>
@@ -239,6 +236,9 @@
     <t>Skew of Eastward Wind Component (U rotated to run)</t>
   </si>
   <si>
+    <t>time: skew</t>
+  </si>
+  <si>
     <t>skew_northward_wind</t>
   </si>
   <si>
@@ -320,10 +320,10 @@
     <t>Stability Parameter (Z/L)</t>
   </si>
   <si>
-    <t>standard_deviation_upward_air_velocity</t>
-  </si>
-  <si>
-    <t>Standard Deviation Upward Air Velocity (sigma W)</t>
+    <t>divergence_of_upward_air_velocity</t>
+  </si>
+  <si>
+    <t>Divergence  of Upward Air Velocity (sigma W)</t>
   </si>
   <si>
     <t>time: standard_deviation</t>
@@ -767,34 +767,34 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -805,6 +805,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -851,72 +854,72 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
         <v>1.0</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1"/>
@@ -1941,75 +1944,75 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2017,7 +2020,7 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2025,7 +2028,7 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2045,31 +2048,31 @@
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -2077,7 +2080,7 @@
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2085,9 +2088,9 @@
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2095,7 +2098,7 @@
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2103,7 +2106,7 @@
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2123,31 +2126,31 @@
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="B26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -2155,7 +2158,7 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="B29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -2163,9 +2166,9 @@
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="7">
+        <v>20</v>
+      </c>
+      <c r="C30" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2173,7 +2176,7 @@
       <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2181,7 +2184,7 @@
       <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2195,21 +2198,21 @@
     </row>
     <row r="34" ht="12.0" customHeight="1"/>
     <row r="35" ht="12.0" customHeight="1">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="B37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
@@ -2217,7 +2220,7 @@
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="B38" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
@@ -2225,25 +2228,25 @@
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="7">
+        <v>20</v>
+      </c>
+      <c r="C41" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2251,7 +2254,7 @@
       <c r="B42" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2259,16 +2262,16 @@
       <c r="B43" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
         <v>37</v>
-      </c>
-      <c r="C44" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="45" ht="12.0" customHeight="1">
@@ -2282,20 +2285,20 @@
     <row r="46" ht="12.0" customHeight="1"/>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="B49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -2303,33 +2306,33 @@
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="B50" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="B51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="7">
+        <v>20</v>
+      </c>
+      <c r="C53" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2337,7 +2340,7 @@
       <c r="B54" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2345,16 +2348,16 @@
       <c r="B55" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
         <v>37</v>
-      </c>
-      <c r="C56" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="57" ht="12.0" customHeight="1">
@@ -2368,20 +2371,20 @@
     <row r="58" ht="12.0" customHeight="1"/>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="B61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>33</v>
@@ -2389,33 +2392,33 @@
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="B62" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="B63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="12.0" customHeight="1">
       <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="B65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="7">
+        <v>20</v>
+      </c>
+      <c r="C65" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2423,7 +2426,7 @@
       <c r="B66" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2431,16 +2434,16 @@
       <c r="B67" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="68" ht="12.0" customHeight="1">
       <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
         <v>37</v>
-      </c>
-      <c r="C68" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="69" ht="12.0" customHeight="1">
@@ -2454,20 +2457,20 @@
     <row r="70" ht="12.0" customHeight="1"/>
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" ht="12.0" customHeight="1">
       <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="73" ht="12.0" customHeight="1">
       <c r="B73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
         <v>33</v>
@@ -2475,33 +2478,33 @@
     </row>
     <row r="74" ht="12.0" customHeight="1">
       <c r="B74" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="12.0" customHeight="1">
       <c r="B75" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" ht="12.0" customHeight="1">
       <c r="B76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="B77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="7">
+        <v>20</v>
+      </c>
+      <c r="C77" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2509,7 +2512,7 @@
       <c r="B78" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2517,16 +2520,16 @@
       <c r="B79" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="80" ht="12.0" customHeight="1">
       <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" t="s">
         <v>37</v>
-      </c>
-      <c r="C80" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="81" ht="12.0" customHeight="1">
@@ -2539,21 +2542,21 @@
     </row>
     <row r="82" ht="12.0" customHeight="1"/>
     <row r="83" ht="12.0" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>47</v>
+      <c r="A83" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="84" ht="12.0" customHeight="1">
       <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="85" ht="12.0" customHeight="1">
       <c r="B85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
         <v>33</v>
@@ -2561,33 +2564,33 @@
     </row>
     <row r="86" ht="12.0" customHeight="1">
       <c r="B86" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" ht="12.0" customHeight="1">
       <c r="B87" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" ht="12.0" customHeight="1">
       <c r="B88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" ht="12.0" customHeight="1">
       <c r="B89" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="7">
+        <v>20</v>
+      </c>
+      <c r="C89" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2595,7 +2598,7 @@
       <c r="B90" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2603,16 +2606,16 @@
       <c r="B91" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="92" ht="12.0" customHeight="1">
       <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" t="s">
         <v>37</v>
-      </c>
-      <c r="C92" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="93" ht="12.0" customHeight="1">
@@ -2625,21 +2628,21 @@
     </row>
     <row r="94" ht="12.0" customHeight="1"/>
     <row r="95" ht="12.0" customHeight="1">
-      <c r="A95" s="5" t="s">
-        <v>50</v>
+      <c r="A95" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="96" ht="12.0" customHeight="1">
       <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="97" ht="12.0" customHeight="1">
       <c r="B97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
         <v>33</v>
@@ -2647,33 +2650,33 @@
     </row>
     <row r="98" ht="12.0" customHeight="1">
       <c r="B98" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="12.0" customHeight="1">
       <c r="B99" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="12.0" customHeight="1">
       <c r="B100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>53</v>
+        <v>18</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="101" ht="12.0" customHeight="1">
       <c r="B101" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" s="7">
+        <v>20</v>
+      </c>
+      <c r="C101" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2681,7 +2684,7 @@
       <c r="B102" t="s">
         <v>21</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2689,16 +2692,16 @@
       <c r="B103" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="104" ht="12.0" customHeight="1">
       <c r="B104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" t="s">
         <v>37</v>
-      </c>
-      <c r="C104" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="105" ht="12.0" customHeight="1">
@@ -2711,21 +2714,21 @@
     </row>
     <row r="106" ht="12.0" customHeight="1"/>
     <row r="107" ht="12.0" customHeight="1">
-      <c r="A107" s="5" t="s">
-        <v>54</v>
+      <c r="A107" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="108" ht="12.0" customHeight="1">
       <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="109" ht="12.0" customHeight="1">
       <c r="B109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
         <v>33</v>
@@ -2733,33 +2736,33 @@
     </row>
     <row r="110" ht="12.0" customHeight="1">
       <c r="B110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="8">
+        <v>2</v>
+      </c>
+      <c r="C110" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="111" ht="12.0" customHeight="1">
       <c r="B111" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" ht="12.0" customHeight="1">
       <c r="B112" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" ht="12.0" customHeight="1">
       <c r="B113" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="7">
+        <v>20</v>
+      </c>
+      <c r="C113" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2767,7 +2770,7 @@
       <c r="B114" t="s">
         <v>21</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2775,16 +2778,16 @@
       <c r="B115" t="s">
         <v>23</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="116" ht="12.0" customHeight="1">
       <c r="B116" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" t="s">
         <v>37</v>
-      </c>
-      <c r="C116" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="117" ht="12.0" customHeight="1">
@@ -2797,21 +2800,21 @@
     </row>
     <row r="118" ht="12.0" customHeight="1"/>
     <row r="119" ht="12.0" customHeight="1">
-      <c r="A119" s="5" t="s">
-        <v>56</v>
+      <c r="A119" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="120" ht="12.0" customHeight="1">
       <c r="B120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="121" ht="12.0" customHeight="1">
       <c r="B121" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
         <v>33</v>
@@ -2819,30 +2822,30 @@
     </row>
     <row r="122" ht="12.0" customHeight="1">
       <c r="B122" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="123" ht="12.0" customHeight="1">
       <c r="B123" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" ht="12.0" customHeight="1">
       <c r="B124" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" ht="12.0" customHeight="1">
       <c r="B125" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="7">
+        <v>20</v>
+      </c>
+      <c r="C125" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2850,7 +2853,7 @@
       <c r="B126" t="s">
         <v>21</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2858,16 +2861,16 @@
       <c r="B127" t="s">
         <v>23</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="128" ht="12.0" customHeight="1">
       <c r="B128" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" t="s">
         <v>37</v>
-      </c>
-      <c r="C128" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="129" ht="12.0" customHeight="1">
@@ -2881,20 +2884,20 @@
     <row r="130" ht="12.0" customHeight="1"/>
     <row r="131" ht="12.0" customHeight="1">
       <c r="A131" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" ht="12.0" customHeight="1">
       <c r="B132" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="133" ht="12.0" customHeight="1">
       <c r="B133" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
         <v>33</v>
@@ -2902,7 +2905,7 @@
     </row>
     <row r="134" ht="12.0" customHeight="1">
       <c r="B134" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
         <v>34</v>
@@ -2910,22 +2913,22 @@
     </row>
     <row r="135" ht="12.0" customHeight="1">
       <c r="B135" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" ht="12.0" customHeight="1">
       <c r="B136" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" ht="12.0" customHeight="1">
       <c r="B137" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" s="7">
+        <v>20</v>
+      </c>
+      <c r="C137" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2933,7 +2936,7 @@
       <c r="B138" t="s">
         <v>21</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2941,16 +2944,16 @@
       <c r="B139" t="s">
         <v>23</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="140" ht="12.0" customHeight="1">
       <c r="B140" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" t="s">
         <v>37</v>
-      </c>
-      <c r="C140" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="141" ht="12.0" customHeight="1">
@@ -2964,20 +2967,20 @@
     <row r="142" ht="12.0" customHeight="1"/>
     <row r="143" ht="12.0" customHeight="1">
       <c r="A143" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" ht="12.0" customHeight="1">
       <c r="B144" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="145" ht="12.0" customHeight="1">
       <c r="B145" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
         <v>33</v>
@@ -2985,33 +2988,33 @@
     </row>
     <row r="146" ht="12.0" customHeight="1">
       <c r="B146" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" ht="12.0" customHeight="1">
       <c r="B147" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" ht="12.0" customHeight="1">
       <c r="B148" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" ht="12.0" customHeight="1">
       <c r="B149" t="s">
-        <v>18</v>
-      </c>
-      <c r="C149" s="7">
+        <v>20</v>
+      </c>
+      <c r="C149" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -3019,7 +3022,7 @@
       <c r="B150" t="s">
         <v>21</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3027,16 +3030,16 @@
       <c r="B151" t="s">
         <v>23</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="152" ht="12.0" customHeight="1">
       <c r="B152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" t="s">
         <v>37</v>
-      </c>
-      <c r="C152" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="153" ht="12.0" customHeight="1">
@@ -3049,21 +3052,21 @@
     </row>
     <row r="154" ht="12.0" customHeight="1"/>
     <row r="155" ht="12.0" customHeight="1">
-      <c r="A155" s="5" t="s">
-        <v>63</v>
+      <c r="A155" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="156" ht="12.0" customHeight="1">
       <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="157" ht="12.0" customHeight="1">
       <c r="B157" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
         <v>33</v>
@@ -3071,33 +3074,33 @@
     </row>
     <row r="158" ht="12.0" customHeight="1">
       <c r="B158" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" ht="12.0" customHeight="1">
       <c r="B159" t="s">
-        <v>15</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="160" ht="12.0" customHeight="1">
       <c r="B160" t="s">
-        <v>16</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>64</v>
+        <v>18</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="161" ht="12.0" customHeight="1">
       <c r="B161" t="s">
-        <v>18</v>
-      </c>
-      <c r="C161" s="7">
+        <v>20</v>
+      </c>
+      <c r="C161" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -3105,7 +3108,7 @@
       <c r="B162" t="s">
         <v>21</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3113,16 +3116,16 @@
       <c r="B163" t="s">
         <v>23</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="164" ht="12.0" customHeight="1">
       <c r="B164" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164" t="s">
         <v>37</v>
-      </c>
-      <c r="C164" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="165" ht="12.0" customHeight="1">
@@ -3135,21 +3138,21 @@
     </row>
     <row r="166" ht="12.0" customHeight="1"/>
     <row r="167" ht="12.0" customHeight="1">
-      <c r="A167" s="5" t="s">
-        <v>65</v>
+      <c r="A167" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="168" ht="12.0" customHeight="1">
       <c r="B168" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="169" ht="12.0" customHeight="1">
       <c r="B169" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C169" t="s">
         <v>33</v>
@@ -3157,33 +3160,33 @@
     </row>
     <row r="170" ht="12.0" customHeight="1">
       <c r="B170" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" ht="12.0" customHeight="1">
       <c r="B171" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" ht="12.0" customHeight="1">
       <c r="B172" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="173" ht="12.0" customHeight="1">
       <c r="B173" t="s">
-        <v>18</v>
-      </c>
-      <c r="C173" s="7">
+        <v>20</v>
+      </c>
+      <c r="C173" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -3191,7 +3194,7 @@
       <c r="B174" t="s">
         <v>21</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3199,16 +3202,16 @@
       <c r="B175" t="s">
         <v>23</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="176" ht="12.0" customHeight="1">
       <c r="B176" t="s">
+        <v>36</v>
+      </c>
+      <c r="C176" t="s">
         <v>37</v>
-      </c>
-      <c r="C176" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="177" ht="12.0" customHeight="1">
@@ -3220,24 +3223,24 @@
       </c>
     </row>
     <row r="178" ht="12.0" customHeight="1">
-      <c r="C178" s="8"/>
+      <c r="C178" s="4"/>
     </row>
     <row r="179" ht="12.0" customHeight="1">
-      <c r="A179" s="5" t="s">
-        <v>67</v>
+      <c r="A179" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="180" ht="12.0" customHeight="1">
       <c r="B180" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="181" ht="12.0" customHeight="1">
       <c r="B181" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C181" t="s">
         <v>33</v>
@@ -3245,30 +3248,30 @@
     </row>
     <row r="182" ht="12.0" customHeight="1">
       <c r="B182" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" ht="12.0" customHeight="1">
       <c r="B183" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" ht="12.0" customHeight="1">
       <c r="B184" t="s">
-        <v>16</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="185" ht="12.0" customHeight="1">
       <c r="B185" t="s">
-        <v>18</v>
-      </c>
-      <c r="C185" s="7">
+        <v>20</v>
+      </c>
+      <c r="C185" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -3276,7 +3279,7 @@
       <c r="B186" t="s">
         <v>21</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3284,16 +3287,16 @@
       <c r="B187" t="s">
         <v>23</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="188" ht="12.0" customHeight="1">
       <c r="B188" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188" t="s">
         <v>37</v>
-      </c>
-      <c r="C188" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="189" ht="12.0" customHeight="1">
@@ -3305,24 +3308,24 @@
       </c>
     </row>
     <row r="190" ht="12.0" customHeight="1">
-      <c r="C190" s="8"/>
+      <c r="C190" s="4"/>
     </row>
     <row r="191" ht="12.0" customHeight="1">
-      <c r="A191" s="5" t="s">
-        <v>69</v>
+      <c r="A191" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="192" ht="12.0" customHeight="1">
       <c r="B192" t="s">
-        <v>10</v>
-      </c>
-      <c r="C192" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="193" ht="12.0" customHeight="1">
       <c r="B193" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C193" t="s">
         <v>33</v>
@@ -3330,30 +3333,30 @@
     </row>
     <row r="194" ht="12.0" customHeight="1">
       <c r="B194" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" ht="12.0" customHeight="1">
       <c r="B195" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" ht="12.0" customHeight="1">
       <c r="B196" t="s">
-        <v>16</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>70</v>
+        <v>18</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="197" ht="12.0" customHeight="1">
       <c r="B197" t="s">
-        <v>18</v>
-      </c>
-      <c r="C197" s="7">
+        <v>20</v>
+      </c>
+      <c r="C197" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -3361,7 +3364,7 @@
       <c r="B198" t="s">
         <v>21</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3369,16 +3372,16 @@
       <c r="B199" t="s">
         <v>23</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="200" ht="12.0" customHeight="1">
       <c r="B200" t="s">
+        <v>36</v>
+      </c>
+      <c r="C200" t="s">
         <v>37</v>
-      </c>
-      <c r="C200" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="201" ht="12.0" customHeight="1">
@@ -3391,21 +3394,21 @@
     </row>
     <row r="202" ht="12.0" customHeight="1"/>
     <row r="203" ht="12.0" customHeight="1">
-      <c r="A203" s="5" t="s">
-        <v>71</v>
+      <c r="A203" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="204" ht="12.0" customHeight="1">
       <c r="B204" t="s">
-        <v>10</v>
-      </c>
-      <c r="C204" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="205" ht="12.0" customHeight="1">
       <c r="B205" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C205" t="s">
         <v>33</v>
@@ -3413,30 +3416,30 @@
     </row>
     <row r="206" ht="12.0" customHeight="1">
       <c r="B206" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207" ht="12.0" customHeight="1">
       <c r="B207" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" ht="12.0" customHeight="1">
       <c r="B208" t="s">
-        <v>16</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>72</v>
+        <v>18</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="209" ht="12.0" customHeight="1">
       <c r="B209" t="s">
-        <v>18</v>
-      </c>
-      <c r="C209" s="7">
+        <v>20</v>
+      </c>
+      <c r="C209" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -3444,7 +3447,7 @@
       <c r="B210" t="s">
         <v>21</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3452,16 +3455,16 @@
       <c r="B211" t="s">
         <v>23</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="212" ht="12.0" customHeight="1">
       <c r="B212" t="s">
+        <v>36</v>
+      </c>
+      <c r="C212" t="s">
         <v>37</v>
-      </c>
-      <c r="C212" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="213" ht="12.0" customHeight="1">
@@ -3474,52 +3477,52 @@
     </row>
     <row r="214" ht="12.0" customHeight="1"/>
     <row r="215" ht="12.0" customHeight="1">
-      <c r="A215" s="5" t="s">
-        <v>73</v>
+      <c r="A215" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="216" ht="12.0" customHeight="1">
       <c r="B216" t="s">
-        <v>10</v>
-      </c>
-      <c r="C216" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="217" ht="12.0" customHeight="1">
       <c r="B217" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C217" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" ht="12.0" customHeight="1">
       <c r="B218" t="s">
-        <v>6</v>
-      </c>
-      <c r="C218" s="8">
+        <v>2</v>
+      </c>
+      <c r="C218" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="219" ht="12.0" customHeight="1">
       <c r="B219" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" ht="12.0" customHeight="1">
       <c r="B220" t="s">
-        <v>16</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>74</v>
+        <v>18</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="221" ht="12.0" customHeight="1">
       <c r="B221" t="s">
-        <v>18</v>
-      </c>
-      <c r="C221" s="7">
+        <v>20</v>
+      </c>
+      <c r="C221" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -3527,7 +3530,7 @@
       <c r="B222" t="s">
         <v>21</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C222" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3535,16 +3538,16 @@
       <c r="B223" t="s">
         <v>23</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="224" ht="12.0" customHeight="1">
       <c r="B224" t="s">
-        <v>37</v>
-      </c>
-      <c r="C224" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="225" ht="12.0" customHeight="1">
@@ -3557,52 +3560,52 @@
     </row>
     <row r="226" ht="12.0" customHeight="1"/>
     <row r="227" ht="12.0" customHeight="1">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="228" ht="12.0" customHeight="1">
       <c r="B228" t="s">
-        <v>10</v>
-      </c>
-      <c r="C228" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="229" ht="12.0" customHeight="1">
       <c r="B229" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C229" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" ht="12.0" customHeight="1">
       <c r="B230" t="s">
-        <v>6</v>
-      </c>
-      <c r="C230" s="8">
+        <v>2</v>
+      </c>
+      <c r="C230" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="231" ht="12.0" customHeight="1">
       <c r="B231" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232" ht="12.0" customHeight="1">
       <c r="B232" t="s">
-        <v>16</v>
-      </c>
-      <c r="C232" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="233" ht="12.0" customHeight="1">
       <c r="B233" t="s">
-        <v>18</v>
-      </c>
-      <c r="C233" s="7">
+        <v>20</v>
+      </c>
+      <c r="C233" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -3610,7 +3613,7 @@
       <c r="B234" t="s">
         <v>21</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="C234" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3618,16 +3621,16 @@
       <c r="B235" t="s">
         <v>23</v>
       </c>
-      <c r="C235" s="8" t="s">
+      <c r="C235" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="236" ht="12.0" customHeight="1">
       <c r="B236" t="s">
-        <v>37</v>
-      </c>
-      <c r="C236" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="237" ht="12.0" customHeight="1">
@@ -3640,52 +3643,52 @@
     </row>
     <row r="238" ht="12.0" customHeight="1"/>
     <row r="239" ht="12.0" customHeight="1">
-      <c r="A239" s="5" t="s">
+      <c r="A239" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="240" ht="12.0" customHeight="1">
       <c r="B240" t="s">
-        <v>10</v>
-      </c>
-      <c r="C240" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="241" ht="12.0" customHeight="1">
       <c r="B241" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" ht="12.0" customHeight="1">
       <c r="B242" t="s">
-        <v>6</v>
-      </c>
-      <c r="C242" s="8">
+        <v>2</v>
+      </c>
+      <c r="C242" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="243" ht="12.0" customHeight="1">
       <c r="B243" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" ht="12.0" customHeight="1">
       <c r="B244" t="s">
-        <v>16</v>
-      </c>
-      <c r="C244" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C244" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="245" ht="12.0" customHeight="1">
       <c r="B245" t="s">
-        <v>18</v>
-      </c>
-      <c r="C245" s="7">
+        <v>20</v>
+      </c>
+      <c r="C245" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -3693,7 +3696,7 @@
       <c r="B246" t="s">
         <v>21</v>
       </c>
-      <c r="C246" s="8" t="s">
+      <c r="C246" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3701,16 +3704,16 @@
       <c r="B247" t="s">
         <v>23</v>
       </c>
-      <c r="C247" s="8" t="s">
+      <c r="C247" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="248" ht="12.0" customHeight="1">
       <c r="B248" t="s">
-        <v>37</v>
-      </c>
-      <c r="C248" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="249" ht="12.0" customHeight="1">
@@ -3723,52 +3726,52 @@
     </row>
     <row r="250" ht="12.0" customHeight="1"/>
     <row r="251" ht="12.0" customHeight="1">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="252" ht="12.0" customHeight="1">
       <c r="B252" t="s">
-        <v>10</v>
-      </c>
-      <c r="C252" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="253" ht="12.0" customHeight="1">
       <c r="B253" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C253" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" ht="12.0" customHeight="1">
       <c r="B254" t="s">
-        <v>6</v>
-      </c>
-      <c r="C254" s="8">
+        <v>2</v>
+      </c>
+      <c r="C254" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="255" ht="12.0" customHeight="1">
       <c r="B255" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" ht="12.0" customHeight="1">
       <c r="B256" t="s">
-        <v>16</v>
-      </c>
-      <c r="C256" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C256" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="257" ht="12.0" customHeight="1">
       <c r="B257" t="s">
-        <v>18</v>
-      </c>
-      <c r="C257" s="7">
+        <v>20</v>
+      </c>
+      <c r="C257" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -3776,7 +3779,7 @@
       <c r="B258" t="s">
         <v>21</v>
       </c>
-      <c r="C258" s="8" t="s">
+      <c r="C258" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3784,16 +3787,16 @@
       <c r="B259" t="s">
         <v>23</v>
       </c>
-      <c r="C259" s="8" t="s">
+      <c r="C259" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="260" ht="12.0" customHeight="1">
       <c r="B260" t="s">
+        <v>36</v>
+      </c>
+      <c r="C260" t="s">
         <v>37</v>
-      </c>
-      <c r="C260" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="261" ht="12.0" customHeight="1">
@@ -3806,52 +3809,52 @@
     </row>
     <row r="262" ht="12.0" customHeight="1"/>
     <row r="263" ht="12.0" customHeight="1">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="264" ht="12.0" customHeight="1">
       <c r="B264" t="s">
-        <v>10</v>
-      </c>
-      <c r="C264" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="265" ht="12.0" customHeight="1">
       <c r="B265" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C265" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266" ht="12.0" customHeight="1">
       <c r="B266" t="s">
-        <v>6</v>
-      </c>
-      <c r="C266" s="8">
+        <v>2</v>
+      </c>
+      <c r="C266" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="267" ht="12.0" customHeight="1">
       <c r="B267" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" ht="12.0" customHeight="1">
       <c r="B268" t="s">
-        <v>16</v>
-      </c>
-      <c r="C268" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="269" ht="12.0" customHeight="1">
       <c r="B269" t="s">
-        <v>18</v>
-      </c>
-      <c r="C269" s="7">
+        <v>20</v>
+      </c>
+      <c r="C269" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -3859,7 +3862,7 @@
       <c r="B270" t="s">
         <v>21</v>
       </c>
-      <c r="C270" s="8" t="s">
+      <c r="C270" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3867,16 +3870,16 @@
       <c r="B271" t="s">
         <v>23</v>
       </c>
-      <c r="C271" s="8" t="s">
+      <c r="C271" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="272" ht="12.0" customHeight="1">
       <c r="B272" t="s">
+        <v>36</v>
+      </c>
+      <c r="C272" t="s">
         <v>37</v>
-      </c>
-      <c r="C272" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="273" ht="12.0" customHeight="1">
@@ -3889,52 +3892,52 @@
     </row>
     <row r="274" ht="12.0" customHeight="1"/>
     <row r="275" ht="12.0" customHeight="1">
-      <c r="A275" s="5" t="s">
+      <c r="A275" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="276" ht="12.0" customHeight="1">
       <c r="B276" t="s">
-        <v>10</v>
-      </c>
-      <c r="C276" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="277" ht="12.0" customHeight="1">
       <c r="B277" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C277" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" ht="12.0" customHeight="1">
       <c r="B278" t="s">
-        <v>6</v>
-      </c>
-      <c r="C278" s="8">
+        <v>2</v>
+      </c>
+      <c r="C278" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="279" ht="12.0" customHeight="1">
       <c r="B279" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280" ht="12.0" customHeight="1">
       <c r="B280" t="s">
-        <v>16</v>
-      </c>
-      <c r="C280" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C280" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="281" ht="12.0" customHeight="1">
       <c r="B281" t="s">
-        <v>18</v>
-      </c>
-      <c r="C281" s="7">
+        <v>20</v>
+      </c>
+      <c r="C281" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -3942,7 +3945,7 @@
       <c r="B282" t="s">
         <v>21</v>
       </c>
-      <c r="C282" s="8" t="s">
+      <c r="C282" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3950,16 +3953,16 @@
       <c r="B283" t="s">
         <v>23</v>
       </c>
-      <c r="C283" s="8" t="s">
+      <c r="C283" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="284" ht="12.0" customHeight="1">
       <c r="B284" t="s">
+        <v>36</v>
+      </c>
+      <c r="C284" t="s">
         <v>37</v>
-      </c>
-      <c r="C284" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="285" ht="12.0" customHeight="1">
@@ -3972,52 +3975,52 @@
     </row>
     <row r="286" ht="12.0" customHeight="1"/>
     <row r="287" ht="12.0" customHeight="1">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="288" ht="12.0" customHeight="1">
       <c r="B288" t="s">
-        <v>10</v>
-      </c>
-      <c r="C288" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="289" ht="12.0" customHeight="1">
       <c r="B289" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C289" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" ht="12.0" customHeight="1">
       <c r="B290" t="s">
-        <v>6</v>
-      </c>
-      <c r="C290" s="8">
+        <v>2</v>
+      </c>
+      <c r="C290" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="291" ht="12.0" customHeight="1">
       <c r="B291" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="292" ht="12.0" customHeight="1">
       <c r="B292" t="s">
-        <v>16</v>
-      </c>
-      <c r="C292" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C292" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="293" ht="12.0" customHeight="1">
       <c r="B293" t="s">
-        <v>18</v>
-      </c>
-      <c r="C293" s="7">
+        <v>20</v>
+      </c>
+      <c r="C293" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -4025,7 +4028,7 @@
       <c r="B294" t="s">
         <v>21</v>
       </c>
-      <c r="C294" s="8" t="s">
+      <c r="C294" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4033,16 +4036,16 @@
       <c r="B295" t="s">
         <v>23</v>
       </c>
-      <c r="C295" s="8" t="s">
+      <c r="C295" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="296" ht="12.0" customHeight="1">
       <c r="B296" t="s">
+        <v>36</v>
+      </c>
+      <c r="C296" t="s">
         <v>37</v>
-      </c>
-      <c r="C296" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="297" ht="12.0" customHeight="1">
@@ -4055,52 +4058,52 @@
     </row>
     <row r="298" ht="12.0" customHeight="1"/>
     <row r="299" ht="12.0" customHeight="1">
-      <c r="A299" s="5" t="s">
+      <c r="A299" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="300" ht="12.0" customHeight="1">
       <c r="B300" t="s">
-        <v>10</v>
-      </c>
-      <c r="C300" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="301" ht="12.0" customHeight="1">
       <c r="B301" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C301" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" ht="12.0" customHeight="1">
       <c r="B302" t="s">
-        <v>6</v>
-      </c>
-      <c r="C302" s="8">
+        <v>2</v>
+      </c>
+      <c r="C302" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="303" ht="12.0" customHeight="1">
       <c r="B303" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" ht="12.0" customHeight="1">
       <c r="B304" t="s">
-        <v>16</v>
-      </c>
-      <c r="C304" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C304" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="305" ht="12.0" customHeight="1">
       <c r="B305" t="s">
-        <v>18</v>
-      </c>
-      <c r="C305" s="7">
+        <v>20</v>
+      </c>
+      <c r="C305" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -4108,7 +4111,7 @@
       <c r="B306" t="s">
         <v>21</v>
       </c>
-      <c r="C306" s="8" t="s">
+      <c r="C306" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4116,16 +4119,16 @@
       <c r="B307" t="s">
         <v>23</v>
       </c>
-      <c r="C307" s="8" t="s">
+      <c r="C307" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="308" ht="12.0" customHeight="1">
       <c r="B308" t="s">
+        <v>36</v>
+      </c>
+      <c r="C308" t="s">
         <v>37</v>
-      </c>
-      <c r="C308" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="309" ht="12.0" customHeight="1">
@@ -4144,36 +4147,36 @@
     </row>
     <row r="312" ht="12.0" customHeight="1">
       <c r="B312" t="s">
-        <v>10</v>
-      </c>
-      <c r="C312" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="313" ht="12.0" customHeight="1">
       <c r="B313" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C313" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" ht="12.0" customHeight="1">
       <c r="B314" t="s">
-        <v>6</v>
-      </c>
-      <c r="C314" s="8">
+        <v>2</v>
+      </c>
+      <c r="C314" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="315" ht="12.0" customHeight="1">
       <c r="B315" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="316" ht="12.0" customHeight="1">
       <c r="B316" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C316" t="s">
         <v>90</v>
@@ -4181,9 +4184,9 @@
     </row>
     <row r="317" ht="12.0" customHeight="1">
       <c r="B317" t="s">
-        <v>18</v>
-      </c>
-      <c r="C317" s="7">
+        <v>20</v>
+      </c>
+      <c r="C317" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -4191,7 +4194,7 @@
       <c r="B318" t="s">
         <v>21</v>
       </c>
-      <c r="C318" s="8" t="s">
+      <c r="C318" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4199,16 +4202,16 @@
       <c r="B319" t="s">
         <v>23</v>
       </c>
-      <c r="C319" s="8" t="s">
+      <c r="C319" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="320" ht="12.0" customHeight="1">
       <c r="B320" t="s">
+        <v>36</v>
+      </c>
+      <c r="C320" t="s">
         <v>37</v>
-      </c>
-      <c r="C320" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="321" ht="12.0" customHeight="1">
@@ -4227,36 +4230,36 @@
     </row>
     <row r="324" ht="12.0" customHeight="1">
       <c r="B324" t="s">
-        <v>10</v>
-      </c>
-      <c r="C324" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="325" ht="12.0" customHeight="1">
       <c r="B325" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C325" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" ht="12.0" customHeight="1">
       <c r="B326" t="s">
-        <v>6</v>
-      </c>
-      <c r="C326" s="8">
+        <v>2</v>
+      </c>
+      <c r="C326" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="327" ht="12.0" customHeight="1">
       <c r="B327" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="328" ht="12.0" customHeight="1">
       <c r="B328" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C328" t="s">
         <v>92</v>
@@ -4264,9 +4267,9 @@
     </row>
     <row r="329" ht="12.0" customHeight="1">
       <c r="B329" t="s">
-        <v>18</v>
-      </c>
-      <c r="C329" s="7">
+        <v>20</v>
+      </c>
+      <c r="C329" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -4274,7 +4277,7 @@
       <c r="B330" t="s">
         <v>21</v>
       </c>
-      <c r="C330" s="8" t="s">
+      <c r="C330" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4282,16 +4285,16 @@
       <c r="B331" t="s">
         <v>23</v>
       </c>
-      <c r="C331" s="8" t="s">
+      <c r="C331" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="332" ht="12.0" customHeight="1">
       <c r="B332" t="s">
+        <v>36</v>
+      </c>
+      <c r="C332" t="s">
         <v>37</v>
-      </c>
-      <c r="C332" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="333" ht="12.0" customHeight="1">
@@ -4310,36 +4313,36 @@
     </row>
     <row r="336" ht="12.0" customHeight="1">
       <c r="B336" t="s">
-        <v>10</v>
-      </c>
-      <c r="C336" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C336" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="337" ht="12.0" customHeight="1">
       <c r="B337" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C337" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338" ht="12.0" customHeight="1">
       <c r="B338" t="s">
-        <v>6</v>
-      </c>
-      <c r="C338" s="8">
+        <v>2</v>
+      </c>
+      <c r="C338" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="339" ht="12.0" customHeight="1">
       <c r="B339" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="340" ht="12.0" customHeight="1">
       <c r="B340" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C340" t="s">
         <v>94</v>
@@ -4347,9 +4350,9 @@
     </row>
     <row r="341" ht="12.0" customHeight="1">
       <c r="B341" t="s">
-        <v>18</v>
-      </c>
-      <c r="C341" s="7">
+        <v>20</v>
+      </c>
+      <c r="C341" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -4357,7 +4360,7 @@
       <c r="B342" t="s">
         <v>21</v>
       </c>
-      <c r="C342" s="8" t="s">
+      <c r="C342" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4365,16 +4368,16 @@
       <c r="B343" t="s">
         <v>23</v>
       </c>
-      <c r="C343" s="8" t="s">
+      <c r="C343" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="344" ht="12.0" customHeight="1">
       <c r="B344" t="s">
+        <v>36</v>
+      </c>
+      <c r="C344" t="s">
         <v>37</v>
-      </c>
-      <c r="C344" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="345" ht="12.0" customHeight="1">
@@ -4393,46 +4396,46 @@
     </row>
     <row r="348" ht="12.0" customHeight="1">
       <c r="B348" t="s">
-        <v>10</v>
-      </c>
-      <c r="C348" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="349" ht="12.0" customHeight="1">
       <c r="B349" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C349" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350" ht="12.0" customHeight="1">
       <c r="B350" t="s">
-        <v>6</v>
-      </c>
-      <c r="C350" s="8" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="351" ht="12.0" customHeight="1">
       <c r="B351" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" ht="12.0" customHeight="1">
       <c r="B352" t="s">
-        <v>16</v>
-      </c>
-      <c r="C352" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C352" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="353" ht="12.0" customHeight="1">
       <c r="B353" t="s">
-        <v>18</v>
-      </c>
-      <c r="C353" s="7">
+        <v>20</v>
+      </c>
+      <c r="C353" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -4440,7 +4443,7 @@
       <c r="B354" t="s">
         <v>21</v>
       </c>
-      <c r="C354" s="8" t="s">
+      <c r="C354" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4448,16 +4451,16 @@
       <c r="B355" t="s">
         <v>23</v>
       </c>
-      <c r="C355" s="8" t="s">
+      <c r="C355" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="356" ht="12.0" customHeight="1">
       <c r="B356" t="s">
+        <v>36</v>
+      </c>
+      <c r="C356" t="s">
         <v>37</v>
-      </c>
-      <c r="C356" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="357" ht="12.0" customHeight="1">
@@ -4476,46 +4479,46 @@
     </row>
     <row r="360" ht="12.0" customHeight="1">
       <c r="B360" t="s">
-        <v>10</v>
-      </c>
-      <c r="C360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C360" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="361" ht="12.0" customHeight="1">
       <c r="B361" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C361" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362" ht="12.0" customHeight="1">
       <c r="B362" t="s">
-        <v>6</v>
-      </c>
-      <c r="C362" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C362" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="363" ht="12.0" customHeight="1">
       <c r="B363" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="364" ht="12.0" customHeight="1">
       <c r="B364" t="s">
-        <v>16</v>
-      </c>
-      <c r="C364" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C364" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="365" ht="12.0" customHeight="1">
       <c r="B365" t="s">
-        <v>18</v>
-      </c>
-      <c r="C365" s="7">
+        <v>20</v>
+      </c>
+      <c r="C365" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -4523,7 +4526,7 @@
       <c r="B366" t="s">
         <v>21</v>
       </c>
-      <c r="C366" s="8" t="s">
+      <c r="C366" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4531,16 +4534,16 @@
       <c r="B367" t="s">
         <v>23</v>
       </c>
-      <c r="C367" s="8" t="s">
+      <c r="C367" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="368" ht="12.0" customHeight="1">
       <c r="B368" t="s">
+        <v>36</v>
+      </c>
+      <c r="C368" t="s">
         <v>37</v>
-      </c>
-      <c r="C368" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="369" ht="12.0" customHeight="1">
@@ -4559,46 +4562,46 @@
     </row>
     <row r="372" ht="12.0" customHeight="1">
       <c r="B372" t="s">
-        <v>10</v>
-      </c>
-      <c r="C372" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C372" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="373" ht="12.0" customHeight="1">
       <c r="B373" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C373" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="374" ht="12.0" customHeight="1">
       <c r="B374" t="s">
-        <v>6</v>
-      </c>
-      <c r="C374" s="8">
+        <v>2</v>
+      </c>
+      <c r="C374" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="375" ht="12.0" customHeight="1">
       <c r="B375" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="376" ht="12.0" customHeight="1">
       <c r="B376" t="s">
-        <v>16</v>
-      </c>
-      <c r="C376" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C376" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="377" ht="12.0" customHeight="1">
       <c r="B377" t="s">
-        <v>18</v>
-      </c>
-      <c r="C377" s="7">
+        <v>20</v>
+      </c>
+      <c r="C377" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -4606,7 +4609,7 @@
       <c r="B378" t="s">
         <v>21</v>
       </c>
-      <c r="C378" s="8" t="s">
+      <c r="C378" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4614,16 +4617,16 @@
       <c r="B379" t="s">
         <v>23</v>
       </c>
-      <c r="C379" s="8" t="s">
+      <c r="C379" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="380" ht="12.0" customHeight="1">
       <c r="B380" t="s">
+        <v>36</v>
+      </c>
+      <c r="C380" t="s">
         <v>37</v>
-      </c>
-      <c r="C380" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="381" ht="12.0" customHeight="1">
@@ -4636,52 +4639,52 @@
     </row>
     <row r="382" ht="12.0" customHeight="1"/>
     <row r="383" ht="12.0" customHeight="1">
-      <c r="A383" s="5" t="s">
+      <c r="A383" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="384" ht="12.0" customHeight="1">
       <c r="B384" t="s">
-        <v>10</v>
-      </c>
-      <c r="C384" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C384" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="385" ht="12.0" customHeight="1">
       <c r="B385" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C385" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386" ht="12.0" customHeight="1">
       <c r="B386" t="s">
-        <v>6</v>
-      </c>
-      <c r="C386" s="8" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="387" ht="12.0" customHeight="1">
       <c r="B387" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="388" ht="12.0" customHeight="1">
       <c r="B388" t="s">
-        <v>16</v>
-      </c>
-      <c r="C388" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C388" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="389" ht="12.0" customHeight="1">
       <c r="B389" t="s">
-        <v>18</v>
-      </c>
-      <c r="C389" s="7">
+        <v>20</v>
+      </c>
+      <c r="C389" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -4689,7 +4692,7 @@
       <c r="B390" t="s">
         <v>21</v>
       </c>
-      <c r="C390" s="8" t="s">
+      <c r="C390" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4697,13 +4700,13 @@
       <c r="B391" t="s">
         <v>23</v>
       </c>
-      <c r="C391" s="8" t="s">
+      <c r="C391" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="392" ht="12.0" customHeight="1">
       <c r="B392" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C392" t="s">
         <v>104</v>
@@ -4719,52 +4722,52 @@
     </row>
     <row r="394" ht="12.0" customHeight="1"/>
     <row r="395" ht="12.0" customHeight="1">
-      <c r="A395" s="5" t="s">
+      <c r="A395" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="396" ht="12.0" customHeight="1">
       <c r="B396" t="s">
-        <v>10</v>
-      </c>
-      <c r="C396" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C396" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="397" ht="12.0" customHeight="1">
       <c r="B397" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C397" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398" ht="12.0" customHeight="1">
       <c r="B398" t="s">
-        <v>6</v>
-      </c>
-      <c r="C398" s="8">
+        <v>2</v>
+      </c>
+      <c r="C398" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="399" ht="12.0" customHeight="1">
       <c r="B399" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="400" ht="12.0" customHeight="1">
       <c r="B400" t="s">
-        <v>16</v>
-      </c>
-      <c r="C400" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C400" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="401" ht="12.0" customHeight="1">
       <c r="B401" t="s">
-        <v>18</v>
-      </c>
-      <c r="C401" s="7">
+        <v>20</v>
+      </c>
+      <c r="C401" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -4772,7 +4775,7 @@
       <c r="B402" t="s">
         <v>21</v>
       </c>
-      <c r="C402" s="8" t="s">
+      <c r="C402" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4780,16 +4783,16 @@
       <c r="B403" t="s">
         <v>23</v>
       </c>
-      <c r="C403" s="8" t="s">
+      <c r="C403" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="404" ht="12.0" customHeight="1">
       <c r="B404" t="s">
+        <v>36</v>
+      </c>
+      <c r="C404" t="s">
         <v>37</v>
-      </c>
-      <c r="C404" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="405" ht="12.0" customHeight="1">
@@ -4808,36 +4811,36 @@
     </row>
     <row r="408" ht="12.0" customHeight="1">
       <c r="B408" t="s">
-        <v>10</v>
-      </c>
-      <c r="C408" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C408" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="409" ht="12.0" customHeight="1">
       <c r="B409" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C409" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410" ht="12.0" customHeight="1">
       <c r="B410" t="s">
-        <v>6</v>
-      </c>
-      <c r="C410" s="8" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="411" ht="12.0" customHeight="1">
       <c r="B411" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="412" ht="12.0" customHeight="1">
       <c r="B412" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C412" t="s">
         <v>108</v>
@@ -4845,9 +4848,9 @@
     </row>
     <row r="413" ht="12.0" customHeight="1">
       <c r="B413" t="s">
-        <v>18</v>
-      </c>
-      <c r="C413" s="7">
+        <v>20</v>
+      </c>
+      <c r="C413" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -4855,7 +4858,7 @@
       <c r="B414" t="s">
         <v>21</v>
       </c>
-      <c r="C414" s="8" t="s">
+      <c r="C414" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4863,13 +4866,13 @@
       <c r="B415" t="s">
         <v>23</v>
       </c>
-      <c r="C415" s="8" t="s">
+      <c r="C415" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="416" ht="12.0" customHeight="1">
       <c r="B416" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C416" t="s">
         <v>109</v>
@@ -4891,36 +4894,36 @@
     </row>
     <row r="420" ht="12.0" customHeight="1">
       <c r="B420" t="s">
-        <v>10</v>
-      </c>
-      <c r="C420" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C420" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="421" ht="12.0" customHeight="1">
       <c r="B421" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C421" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="422" ht="12.0" customHeight="1">
       <c r="B422" t="s">
-        <v>6</v>
-      </c>
-      <c r="C422" s="8" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="423" ht="12.0" customHeight="1">
       <c r="B423" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="424" ht="12.0" customHeight="1">
       <c r="B424" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C424" t="s">
         <v>111</v>
@@ -4928,9 +4931,9 @@
     </row>
     <row r="425" ht="12.0" customHeight="1">
       <c r="B425" t="s">
-        <v>18</v>
-      </c>
-      <c r="C425" s="7">
+        <v>20</v>
+      </c>
+      <c r="C425" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -4938,7 +4941,7 @@
       <c r="B426" t="s">
         <v>21</v>
       </c>
-      <c r="C426" s="8" t="s">
+      <c r="C426" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4946,13 +4949,13 @@
       <c r="B427" t="s">
         <v>23</v>
       </c>
-      <c r="C427" s="8" t="s">
+      <c r="C427" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="428" ht="12.0" customHeight="1">
       <c r="B428" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C428" t="s">
         <v>109</v>
@@ -4974,36 +4977,36 @@
     </row>
     <row r="432" ht="12.0" customHeight="1">
       <c r="B432" t="s">
-        <v>10</v>
-      </c>
-      <c r="C432" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C432" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="433" ht="12.0" customHeight="1">
       <c r="B433" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C433" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="434" ht="12.0" customHeight="1">
       <c r="B434" t="s">
-        <v>6</v>
-      </c>
-      <c r="C434" s="8" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="435" ht="12.0" customHeight="1">
       <c r="B435" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="436" ht="12.0" customHeight="1">
       <c r="B436" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C436" t="s">
         <v>113</v>
@@ -5011,9 +5014,9 @@
     </row>
     <row r="437" ht="12.0" customHeight="1">
       <c r="B437" t="s">
-        <v>18</v>
-      </c>
-      <c r="C437" s="7">
+        <v>20</v>
+      </c>
+      <c r="C437" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -5021,7 +5024,7 @@
       <c r="B438" t="s">
         <v>21</v>
       </c>
-      <c r="C438" s="8" t="s">
+      <c r="C438" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5029,13 +5032,13 @@
       <c r="B439" t="s">
         <v>23</v>
       </c>
-      <c r="C439" s="8" t="s">
+      <c r="C439" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="440" ht="12.0" customHeight="1">
       <c r="B440" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C440" t="s">
         <v>109</v>
@@ -5057,36 +5060,36 @@
     </row>
     <row r="444" ht="12.0" customHeight="1">
       <c r="B444" t="s">
-        <v>10</v>
-      </c>
-      <c r="C444" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C444" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="445" ht="12.0" customHeight="1">
       <c r="B445" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C445" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="446" ht="12.0" customHeight="1">
       <c r="B446" t="s">
-        <v>6</v>
-      </c>
-      <c r="C446" s="8" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C446" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="447" ht="12.0" customHeight="1">
       <c r="B447" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="448" ht="12.0" customHeight="1">
       <c r="B448" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C448" t="s">
         <v>115</v>
@@ -5094,9 +5097,9 @@
     </row>
     <row r="449" ht="12.0" customHeight="1">
       <c r="B449" t="s">
-        <v>18</v>
-      </c>
-      <c r="C449" s="7">
+        <v>20</v>
+      </c>
+      <c r="C449" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -5104,7 +5107,7 @@
       <c r="B450" t="s">
         <v>21</v>
       </c>
-      <c r="C450" s="8" t="s">
+      <c r="C450" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5112,13 +5115,13 @@
       <c r="B451" t="s">
         <v>23</v>
       </c>
-      <c r="C451" s="8" t="s">
+      <c r="C451" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="452" ht="12.0" customHeight="1">
       <c r="B452" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C452" t="s">
         <v>109</v>
@@ -5140,36 +5143,36 @@
     </row>
     <row r="456" ht="12.0" customHeight="1">
       <c r="B456" t="s">
-        <v>10</v>
-      </c>
-      <c r="C456" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C456" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="457" ht="12.0" customHeight="1">
       <c r="B457" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C457" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458" ht="12.0" customHeight="1">
       <c r="B458" t="s">
-        <v>6</v>
-      </c>
-      <c r="C458" s="8" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="C458" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="459" ht="12.0" customHeight="1">
       <c r="B459" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="460" ht="12.0" customHeight="1">
       <c r="B460" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C460" t="s">
         <v>117</v>
@@ -5177,9 +5180,9 @@
     </row>
     <row r="461" ht="12.0" customHeight="1">
       <c r="B461" t="s">
-        <v>18</v>
-      </c>
-      <c r="C461" s="7">
+        <v>20</v>
+      </c>
+      <c r="C461" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -5187,7 +5190,7 @@
       <c r="B462" t="s">
         <v>21</v>
       </c>
-      <c r="C462" s="8" t="s">
+      <c r="C462" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5195,13 +5198,13 @@
       <c r="B463" t="s">
         <v>23</v>
       </c>
-      <c r="C463" s="8" t="s">
+      <c r="C463" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="464" ht="12.0" customHeight="1">
       <c r="B464" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C464" t="s">
         <v>109</v>
@@ -5223,36 +5226,36 @@
     </row>
     <row r="468" ht="12.0" customHeight="1">
       <c r="B468" t="s">
-        <v>10</v>
-      </c>
-      <c r="C468" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C468" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="469" ht="12.0" customHeight="1">
       <c r="B469" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C469" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="470" ht="12.0" customHeight="1">
       <c r="B470" t="s">
-        <v>6</v>
-      </c>
-      <c r="C470" s="8" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="471" ht="12.0" customHeight="1">
       <c r="B471" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="472" ht="12.0" customHeight="1">
       <c r="B472" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C472" t="s">
         <v>119</v>
@@ -5260,9 +5263,9 @@
     </row>
     <row r="473" ht="12.0" customHeight="1">
       <c r="B473" t="s">
-        <v>18</v>
-      </c>
-      <c r="C473" s="7">
+        <v>20</v>
+      </c>
+      <c r="C473" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -5270,7 +5273,7 @@
       <c r="B474" t="s">
         <v>21</v>
       </c>
-      <c r="C474" s="8" t="s">
+      <c r="C474" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5278,13 +5281,13 @@
       <c r="B475" t="s">
         <v>23</v>
       </c>
-      <c r="C475" s="8" t="s">
+      <c r="C475" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="476" ht="12.0" customHeight="1">
       <c r="B476" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C476" t="s">
         <v>109</v>
@@ -5300,42 +5303,42 @@
     </row>
     <row r="478" ht="12.0" customHeight="1"/>
     <row r="479" ht="12.0" customHeight="1">
-      <c r="A479" s="5" t="s">
+      <c r="A479" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="480" ht="12.0" customHeight="1">
       <c r="B480" t="s">
-        <v>10</v>
-      </c>
-      <c r="C480" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C480" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="481" ht="12.0" customHeight="1">
       <c r="B481" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C481" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="482" ht="12.0" customHeight="1">
       <c r="B482" t="s">
-        <v>6</v>
-      </c>
-      <c r="C482" s="8" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="483" ht="12.0" customHeight="1">
       <c r="B483" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="484" ht="12.0" customHeight="1">
       <c r="B484" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C484" t="s">
         <v>121</v>
@@ -5343,9 +5346,9 @@
     </row>
     <row r="485" ht="12.0" customHeight="1">
       <c r="B485" t="s">
-        <v>18</v>
-      </c>
-      <c r="C485" s="7">
+        <v>20</v>
+      </c>
+      <c r="C485" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -5353,7 +5356,7 @@
       <c r="B486" t="s">
         <v>21</v>
       </c>
-      <c r="C486" s="8" t="s">
+      <c r="C486" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5361,13 +5364,13 @@
       <c r="B487" t="s">
         <v>23</v>
       </c>
-      <c r="C487" s="8" t="s">
+      <c r="C487" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="488" ht="12.0" customHeight="1">
       <c r="B488" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C488" t="s">
         <v>109</v>
@@ -5383,42 +5386,42 @@
     </row>
     <row r="490" ht="12.0" customHeight="1"/>
     <row r="491" ht="12.0" customHeight="1">
-      <c r="A491" s="5" t="s">
+      <c r="A491" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="492" ht="12.0" customHeight="1">
       <c r="B492" t="s">
-        <v>10</v>
-      </c>
-      <c r="C492" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C492" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="493" ht="12.0" customHeight="1">
       <c r="B493" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C493" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="494" ht="12.0" customHeight="1">
       <c r="B494" t="s">
-        <v>6</v>
-      </c>
-      <c r="C494" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C494" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="495" ht="12.0" customHeight="1">
       <c r="B495" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="496" ht="12.0" customHeight="1">
       <c r="B496" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C496" t="s">
         <v>123</v>
@@ -5426,9 +5429,9 @@
     </row>
     <row r="497" ht="12.0" customHeight="1">
       <c r="B497" t="s">
-        <v>18</v>
-      </c>
-      <c r="C497" s="7">
+        <v>20</v>
+      </c>
+      <c r="C497" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -5436,7 +5439,7 @@
       <c r="B498" t="s">
         <v>21</v>
       </c>
-      <c r="C498" s="8" t="s">
+      <c r="C498" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5444,13 +5447,13 @@
       <c r="B499" t="s">
         <v>23</v>
       </c>
-      <c r="C499" s="8" t="s">
+      <c r="C499" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="500" ht="12.0" customHeight="1">
       <c r="B500" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C500" t="s">
         <v>109</v>
@@ -5466,42 +5469,42 @@
     </row>
     <row r="502" ht="12.0" customHeight="1"/>
     <row r="503" ht="12.0" customHeight="1">
-      <c r="A503" s="5" t="s">
+      <c r="A503" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="504" ht="12.0" customHeight="1">
       <c r="B504" t="s">
-        <v>10</v>
-      </c>
-      <c r="C504" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C504" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="505" ht="12.0" customHeight="1">
       <c r="B505" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C505" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="506" ht="12.0" customHeight="1">
       <c r="B506" t="s">
-        <v>6</v>
-      </c>
-      <c r="C506" s="8">
+        <v>2</v>
+      </c>
+      <c r="C506" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="507" ht="12.0" customHeight="1">
       <c r="B507" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="508" ht="12.0" customHeight="1">
       <c r="B508" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C508" t="s">
         <v>125</v>
@@ -5509,9 +5512,9 @@
     </row>
     <row r="509" ht="12.0" customHeight="1">
       <c r="B509" t="s">
-        <v>18</v>
-      </c>
-      <c r="C509" s="7">
+        <v>20</v>
+      </c>
+      <c r="C509" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -5519,7 +5522,7 @@
       <c r="B510" t="s">
         <v>21</v>
       </c>
-      <c r="C510" s="8" t="s">
+      <c r="C510" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5527,13 +5530,13 @@
       <c r="B511" t="s">
         <v>23</v>
       </c>
-      <c r="C511" s="8" t="s">
+      <c r="C511" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="512" ht="12.0" customHeight="1">
       <c r="B512" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C512" t="s">
         <v>109</v>
@@ -5555,15 +5558,15 @@
     </row>
     <row r="516" ht="12.0" customHeight="1">
       <c r="B516" t="s">
-        <v>10</v>
-      </c>
-      <c r="C516" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C516" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="517" ht="12.0" customHeight="1">
       <c r="B517" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C517" t="s">
         <v>33</v>
@@ -5571,20 +5574,20 @@
     </row>
     <row r="518" ht="12.0" customHeight="1">
       <c r="B518" t="s">
-        <v>6</v>
-      </c>
-      <c r="C518" s="8" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C518" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="519" ht="12.0" customHeight="1">
       <c r="B519" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="520" ht="12.0" customHeight="1">
       <c r="B520" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C520" t="s">
         <v>127</v>
@@ -5592,9 +5595,9 @@
     </row>
     <row r="521" ht="12.0" customHeight="1">
       <c r="B521" t="s">
-        <v>18</v>
-      </c>
-      <c r="C521" s="7">
+        <v>20</v>
+      </c>
+      <c r="C521" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -5602,7 +5605,7 @@
       <c r="B522" t="s">
         <v>21</v>
       </c>
-      <c r="C522" s="8" t="s">
+      <c r="C522" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5610,16 +5613,16 @@
       <c r="B523" t="s">
         <v>23</v>
       </c>
-      <c r="C523" s="8" t="s">
+      <c r="C523" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="524" ht="12.0" customHeight="1">
       <c r="B524" t="s">
+        <v>36</v>
+      </c>
+      <c r="C524" t="s">
         <v>37</v>
-      </c>
-      <c r="C524" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="525" ht="12.0" customHeight="1">
@@ -5638,15 +5641,15 @@
     </row>
     <row r="528" ht="12.0" customHeight="1">
       <c r="B528" t="s">
-        <v>10</v>
-      </c>
-      <c r="C528" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C528" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="529" ht="12.0" customHeight="1">
       <c r="B529" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C529" t="s">
         <v>33</v>
@@ -5654,20 +5657,20 @@
     </row>
     <row r="530" ht="12.0" customHeight="1">
       <c r="B530" t="s">
-        <v>6</v>
-      </c>
-      <c r="C530" s="8" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="531" ht="12.0" customHeight="1">
       <c r="B531" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="532" ht="12.0" customHeight="1">
       <c r="B532" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C532" t="s">
         <v>129</v>
@@ -5675,9 +5678,9 @@
     </row>
     <row r="533" ht="12.0" customHeight="1">
       <c r="B533" t="s">
-        <v>18</v>
-      </c>
-      <c r="C533" s="7">
+        <v>20</v>
+      </c>
+      <c r="C533" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -5685,7 +5688,7 @@
       <c r="B534" t="s">
         <v>21</v>
       </c>
-      <c r="C534" s="8" t="s">
+      <c r="C534" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5693,16 +5696,16 @@
       <c r="B535" t="s">
         <v>23</v>
       </c>
-      <c r="C535" s="8" t="s">
+      <c r="C535" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="536" ht="12.0" customHeight="1">
       <c r="B536" t="s">
+        <v>36</v>
+      </c>
+      <c r="C536" t="s">
         <v>37</v>
-      </c>
-      <c r="C536" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="537" ht="12.0" customHeight="1">
@@ -5721,15 +5724,15 @@
     </row>
     <row r="540" ht="12.0" customHeight="1">
       <c r="B540" t="s">
-        <v>10</v>
-      </c>
-      <c r="C540" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C540" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="541" ht="12.0" customHeight="1">
       <c r="B541" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C541" t="s">
         <v>33</v>
@@ -5737,20 +5740,20 @@
     </row>
     <row r="542" ht="12.0" customHeight="1">
       <c r="B542" t="s">
-        <v>6</v>
-      </c>
-      <c r="C542" s="8" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="543" ht="12.0" customHeight="1">
       <c r="B543" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="544" ht="12.0" customHeight="1">
       <c r="B544" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C544" t="s">
         <v>131</v>
@@ -5758,9 +5761,9 @@
     </row>
     <row r="545" ht="12.0" customHeight="1">
       <c r="B545" t="s">
-        <v>18</v>
-      </c>
-      <c r="C545" s="7">
+        <v>20</v>
+      </c>
+      <c r="C545" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -5768,7 +5771,7 @@
       <c r="B546" t="s">
         <v>21</v>
       </c>
-      <c r="C546" s="8" t="s">
+      <c r="C546" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5776,16 +5779,16 @@
       <c r="B547" t="s">
         <v>23</v>
       </c>
-      <c r="C547" s="8" t="s">
+      <c r="C547" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="548" ht="12.0" customHeight="1">
       <c r="B548" t="s">
+        <v>36</v>
+      </c>
+      <c r="C548" t="s">
         <v>37</v>
-      </c>
-      <c r="C548" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="549" ht="12.0" customHeight="1">
@@ -5804,15 +5807,15 @@
     </row>
     <row r="552" ht="12.0" customHeight="1">
       <c r="B552" t="s">
-        <v>10</v>
-      </c>
-      <c r="C552" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C552" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="553" ht="12.0" customHeight="1">
       <c r="B553" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C553" t="s">
         <v>33</v>
@@ -5820,20 +5823,20 @@
     </row>
     <row r="554" ht="12.0" customHeight="1">
       <c r="B554" t="s">
-        <v>6</v>
-      </c>
-      <c r="C554" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C554" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="555" ht="12.0" customHeight="1">
       <c r="B555" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="556" ht="12.0" customHeight="1">
       <c r="B556" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C556" t="s">
         <v>133</v>
@@ -5841,9 +5844,9 @@
     </row>
     <row r="557" ht="12.0" customHeight="1">
       <c r="B557" t="s">
-        <v>18</v>
-      </c>
-      <c r="C557" s="7">
+        <v>20</v>
+      </c>
+      <c r="C557" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -5851,7 +5854,7 @@
       <c r="B558" t="s">
         <v>21</v>
       </c>
-      <c r="C558" s="8" t="s">
+      <c r="C558" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5859,16 +5862,16 @@
       <c r="B559" t="s">
         <v>23</v>
       </c>
-      <c r="C559" s="8" t="s">
+      <c r="C559" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="560" ht="12.0" customHeight="1">
       <c r="B560" t="s">
+        <v>36</v>
+      </c>
+      <c r="C560" t="s">
         <v>37</v>
-      </c>
-      <c r="C560" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="561" ht="12.0" customHeight="1">
@@ -5887,15 +5890,15 @@
     </row>
     <row r="564" ht="12.0" customHeight="1">
       <c r="B564" t="s">
-        <v>10</v>
-      </c>
-      <c r="C564" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C564" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="565" ht="12.0" customHeight="1">
       <c r="B565" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C565" t="s">
         <v>33</v>
@@ -5903,20 +5906,20 @@
     </row>
     <row r="566" ht="12.0" customHeight="1">
       <c r="B566" t="s">
-        <v>6</v>
-      </c>
-      <c r="C566" s="8" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="C566" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="567" ht="12.0" customHeight="1">
       <c r="B567" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="568" ht="12.0" customHeight="1">
       <c r="B568" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C568" t="s">
         <v>135</v>
@@ -5924,9 +5927,9 @@
     </row>
     <row r="569" ht="12.0" customHeight="1">
       <c r="B569" t="s">
-        <v>18</v>
-      </c>
-      <c r="C569" s="7">
+        <v>20</v>
+      </c>
+      <c r="C569" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -5934,7 +5937,7 @@
       <c r="B570" t="s">
         <v>21</v>
       </c>
-      <c r="C570" s="8" t="s">
+      <c r="C570" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5942,16 +5945,16 @@
       <c r="B571" t="s">
         <v>23</v>
       </c>
-      <c r="C571" s="8" t="s">
+      <c r="C571" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="572" ht="12.0" customHeight="1">
       <c r="B572" t="s">
+        <v>36</v>
+      </c>
+      <c r="C572" t="s">
         <v>37</v>
-      </c>
-      <c r="C572" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="573" ht="12.0" customHeight="1">
@@ -5970,15 +5973,15 @@
     </row>
     <row r="576" ht="12.0" customHeight="1">
       <c r="B576" t="s">
-        <v>10</v>
-      </c>
-      <c r="C576" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C576" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="577" ht="12.0" customHeight="1">
       <c r="B577" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C577" t="s">
         <v>33</v>
@@ -5986,20 +5989,20 @@
     </row>
     <row r="578" ht="12.0" customHeight="1">
       <c r="B578" t="s">
-        <v>6</v>
-      </c>
-      <c r="C578" s="8" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="C578" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="579" ht="12.0" customHeight="1">
       <c r="B579" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="580" ht="12.0" customHeight="1">
       <c r="B580" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C580" t="s">
         <v>137</v>
@@ -6007,9 +6010,9 @@
     </row>
     <row r="581" ht="12.0" customHeight="1">
       <c r="B581" t="s">
-        <v>18</v>
-      </c>
-      <c r="C581" s="7">
+        <v>20</v>
+      </c>
+      <c r="C581" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -6017,7 +6020,7 @@
       <c r="B582" t="s">
         <v>21</v>
       </c>
-      <c r="C582" s="8" t="s">
+      <c r="C582" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6025,16 +6028,16 @@
       <c r="B583" t="s">
         <v>23</v>
       </c>
-      <c r="C583" s="8" t="s">
+      <c r="C583" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="584" ht="12.0" customHeight="1">
       <c r="B584" t="s">
+        <v>36</v>
+      </c>
+      <c r="C584" t="s">
         <v>37</v>
-      </c>
-      <c r="C584" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="585" ht="12.0" customHeight="1">
@@ -6047,21 +6050,21 @@
     </row>
     <row r="586" ht="12.0" customHeight="1"/>
     <row r="587" ht="12.0" customHeight="1">
-      <c r="A587" s="5" t="s">
+      <c r="A587" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="588" ht="12.0" customHeight="1">
       <c r="B588" t="s">
-        <v>10</v>
-      </c>
-      <c r="C588" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C588" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="589" ht="12.0" customHeight="1">
       <c r="B589" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C589" t="s">
         <v>33</v>
@@ -6069,20 +6072,20 @@
     </row>
     <row r="590" ht="12.0" customHeight="1">
       <c r="B590" t="s">
-        <v>6</v>
-      </c>
-      <c r="C590" s="8" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="C590" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="591" ht="12.0" customHeight="1">
       <c r="B591" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="592" ht="12.0" customHeight="1">
       <c r="B592" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C592" t="s">
         <v>139</v>
@@ -6090,9 +6093,9 @@
     </row>
     <row r="593" ht="12.0" customHeight="1">
       <c r="B593" t="s">
-        <v>18</v>
-      </c>
-      <c r="C593" s="7">
+        <v>20</v>
+      </c>
+      <c r="C593" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -6100,7 +6103,7 @@
       <c r="B594" t="s">
         <v>21</v>
       </c>
-      <c r="C594" s="8" t="s">
+      <c r="C594" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6108,16 +6111,16 @@
       <c r="B595" t="s">
         <v>23</v>
       </c>
-      <c r="C595" s="8" t="s">
+      <c r="C595" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="596" ht="12.0" customHeight="1">
       <c r="B596" t="s">
+        <v>36</v>
+      </c>
+      <c r="C596" t="s">
         <v>37</v>
-      </c>
-      <c r="C596" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="597" ht="12.0" customHeight="1">
@@ -6130,21 +6133,21 @@
     </row>
     <row r="598" ht="12.0" customHeight="1"/>
     <row r="599" ht="12.0" customHeight="1">
-      <c r="A599" s="5" t="s">
+      <c r="A599" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="600" ht="12.0" customHeight="1">
       <c r="B600" t="s">
-        <v>10</v>
-      </c>
-      <c r="C600" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C600" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="601" ht="12.0" customHeight="1">
       <c r="B601" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C601" t="s">
         <v>33</v>
@@ -6152,20 +6155,20 @@
     </row>
     <row r="602" ht="12.0" customHeight="1">
       <c r="B602" t="s">
-        <v>6</v>
-      </c>
-      <c r="C602" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C602" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="603" ht="12.0" customHeight="1">
       <c r="B603" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="604" ht="12.0" customHeight="1">
       <c r="B604" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C604" t="s">
         <v>141</v>
@@ -6173,9 +6176,9 @@
     </row>
     <row r="605" ht="12.0" customHeight="1">
       <c r="B605" t="s">
-        <v>18</v>
-      </c>
-      <c r="C605" s="7">
+        <v>20</v>
+      </c>
+      <c r="C605" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -6183,7 +6186,7 @@
       <c r="B606" t="s">
         <v>21</v>
       </c>
-      <c r="C606" s="8" t="s">
+      <c r="C606" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6191,16 +6194,16 @@
       <c r="B607" t="s">
         <v>23</v>
       </c>
-      <c r="C607" s="8" t="s">
+      <c r="C607" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="608" ht="12.0" customHeight="1">
       <c r="B608" t="s">
+        <v>36</v>
+      </c>
+      <c r="C608" t="s">
         <v>37</v>
-      </c>
-      <c r="C608" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="609" ht="12.0" customHeight="1">
@@ -6213,21 +6216,21 @@
     </row>
     <row r="610" ht="12.0" customHeight="1"/>
     <row r="611" ht="12.0" customHeight="1">
-      <c r="A611" s="5" t="s">
+      <c r="A611" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="612" ht="12.0" customHeight="1">
       <c r="B612" t="s">
-        <v>10</v>
-      </c>
-      <c r="C612" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C612" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="613" ht="12.0" customHeight="1">
       <c r="B613" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C613" t="s">
         <v>33</v>
@@ -6235,20 +6238,20 @@
     </row>
     <row r="614" ht="12.0" customHeight="1">
       <c r="B614" t="s">
-        <v>6</v>
-      </c>
-      <c r="C614" s="8">
+        <v>2</v>
+      </c>
+      <c r="C614" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="615" ht="12.0" customHeight="1">
       <c r="B615" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="616" ht="12.0" customHeight="1">
       <c r="B616" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C616" t="s">
         <v>143</v>
@@ -6256,9 +6259,9 @@
     </row>
     <row r="617" ht="12.0" customHeight="1">
       <c r="B617" t="s">
-        <v>18</v>
-      </c>
-      <c r="C617" s="7">
+        <v>20</v>
+      </c>
+      <c r="C617" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -6266,7 +6269,7 @@
       <c r="B618" t="s">
         <v>21</v>
       </c>
-      <c r="C618" s="8" t="s">
+      <c r="C618" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6274,16 +6277,16 @@
       <c r="B619" t="s">
         <v>23</v>
       </c>
-      <c r="C619" s="8" t="s">
+      <c r="C619" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="620" ht="12.0" customHeight="1">
       <c r="B620" t="s">
+        <v>36</v>
+      </c>
+      <c r="C620" t="s">
         <v>37</v>
-      </c>
-      <c r="C620" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="621" ht="12.0" customHeight="1">
@@ -6302,15 +6305,15 @@
     </row>
     <row r="624" ht="12.0" customHeight="1">
       <c r="B624" t="s">
-        <v>10</v>
-      </c>
-      <c r="C624" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C624" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="625" ht="12.0" customHeight="1">
       <c r="B625" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C625" t="s">
         <v>33</v>
@@ -6318,20 +6321,20 @@
     </row>
     <row r="626" ht="12.0" customHeight="1">
       <c r="B626" t="s">
-        <v>6</v>
-      </c>
-      <c r="C626" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C626" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="627" ht="12.0" customHeight="1">
       <c r="B627" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="628" ht="12.0" customHeight="1">
       <c r="B628" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C628" t="s">
         <v>146</v>
@@ -6339,9 +6342,9 @@
     </row>
     <row r="629" ht="12.0" customHeight="1">
       <c r="B629" t="s">
-        <v>18</v>
-      </c>
-      <c r="C629" s="7">
+        <v>20</v>
+      </c>
+      <c r="C629" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -6349,7 +6352,7 @@
       <c r="B630" t="s">
         <v>21</v>
       </c>
-      <c r="C630" s="8" t="s">
+      <c r="C630" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6357,16 +6360,16 @@
       <c r="B631" t="s">
         <v>23</v>
       </c>
-      <c r="C631" s="8" t="s">
+      <c r="C631" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="632" ht="12.0" customHeight="1">
       <c r="B632" t="s">
+        <v>36</v>
+      </c>
+      <c r="C632" t="s">
         <v>37</v>
-      </c>
-      <c r="C632" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="633" ht="12.0" customHeight="1">
@@ -6385,15 +6388,15 @@
     </row>
     <row r="636" ht="12.0" customHeight="1">
       <c r="B636" t="s">
-        <v>10</v>
-      </c>
-      <c r="C636" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C636" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="637" ht="12.0" customHeight="1">
       <c r="B637" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C637" t="s">
         <v>33</v>
@@ -6401,20 +6404,20 @@
     </row>
     <row r="638" ht="12.0" customHeight="1">
       <c r="B638" t="s">
-        <v>6</v>
-      </c>
-      <c r="C638" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C638" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="639" ht="12.0" customHeight="1">
       <c r="B639" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="640" ht="12.0" customHeight="1">
       <c r="B640" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C640" t="s">
         <v>148</v>
@@ -6422,9 +6425,9 @@
     </row>
     <row r="641" ht="12.0" customHeight="1">
       <c r="B641" t="s">
-        <v>18</v>
-      </c>
-      <c r="C641" s="7">
+        <v>20</v>
+      </c>
+      <c r="C641" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -6432,7 +6435,7 @@
       <c r="B642" t="s">
         <v>21</v>
       </c>
-      <c r="C642" s="8" t="s">
+      <c r="C642" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6440,16 +6443,16 @@
       <c r="B643" t="s">
         <v>23</v>
       </c>
-      <c r="C643" s="8" t="s">
+      <c r="C643" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="644" ht="12.0" customHeight="1">
       <c r="B644" t="s">
+        <v>36</v>
+      </c>
+      <c r="C644" t="s">
         <v>37</v>
-      </c>
-      <c r="C644" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="645" ht="12.0" customHeight="1">
@@ -6468,15 +6471,15 @@
     </row>
     <row r="648" ht="12.0" customHeight="1">
       <c r="B648" t="s">
-        <v>10</v>
-      </c>
-      <c r="C648" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C648" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="649" ht="12.0" customHeight="1">
       <c r="B649" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C649" t="s">
         <v>33</v>
@@ -6484,20 +6487,20 @@
     </row>
     <row r="650" ht="12.0" customHeight="1">
       <c r="B650" t="s">
-        <v>6</v>
-      </c>
-      <c r="C650" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C650" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="651" ht="12.0" customHeight="1">
       <c r="B651" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="652" ht="12.0" customHeight="1">
       <c r="B652" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C652" t="s">
         <v>150</v>
@@ -6505,9 +6508,9 @@
     </row>
     <row r="653" ht="12.0" customHeight="1">
       <c r="B653" t="s">
-        <v>18</v>
-      </c>
-      <c r="C653" s="7">
+        <v>20</v>
+      </c>
+      <c r="C653" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -6515,7 +6518,7 @@
       <c r="B654" t="s">
         <v>21</v>
       </c>
-      <c r="C654" s="8" t="s">
+      <c r="C654" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6523,16 +6526,16 @@
       <c r="B655" t="s">
         <v>23</v>
       </c>
-      <c r="C655" s="8" t="s">
+      <c r="C655" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="656" ht="12.0" customHeight="1">
       <c r="B656" t="s">
+        <v>36</v>
+      </c>
+      <c r="C656" t="s">
         <v>37</v>
-      </c>
-      <c r="C656" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="657" ht="12.0" customHeight="1">
@@ -6551,15 +6554,15 @@
     </row>
     <row r="660" ht="12.0" customHeight="1">
       <c r="B660" t="s">
-        <v>10</v>
-      </c>
-      <c r="C660" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C660" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="661" ht="12.0" customHeight="1">
       <c r="B661" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C661" t="s">
         <v>33</v>
@@ -6567,20 +6570,20 @@
     </row>
     <row r="662" ht="12.0" customHeight="1">
       <c r="B662" t="s">
-        <v>6</v>
-      </c>
-      <c r="C662" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C662" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="663" ht="12.0" customHeight="1">
       <c r="B663" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="664" ht="12.0" customHeight="1">
       <c r="B664" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C664" t="s">
         <v>152</v>
@@ -6588,9 +6591,9 @@
     </row>
     <row r="665" ht="12.0" customHeight="1">
       <c r="B665" t="s">
-        <v>18</v>
-      </c>
-      <c r="C665" s="7">
+        <v>20</v>
+      </c>
+      <c r="C665" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -6598,7 +6601,7 @@
       <c r="B666" t="s">
         <v>21</v>
       </c>
-      <c r="C666" s="8" t="s">
+      <c r="C666" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6606,16 +6609,16 @@
       <c r="B667" t="s">
         <v>23</v>
       </c>
-      <c r="C667" s="8" t="s">
+      <c r="C667" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="668" ht="12.0" customHeight="1">
       <c r="B668" t="s">
+        <v>36</v>
+      </c>
+      <c r="C668" t="s">
         <v>37</v>
-      </c>
-      <c r="C668" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="669" ht="12.0" customHeight="1">
@@ -6634,15 +6637,15 @@
     </row>
     <row r="672" ht="12.0" customHeight="1">
       <c r="B672" t="s">
-        <v>10</v>
-      </c>
-      <c r="C672" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C672" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="673" ht="12.0" customHeight="1">
       <c r="B673" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C673" t="s">
         <v>33</v>
@@ -6650,20 +6653,20 @@
     </row>
     <row r="674" ht="12.0" customHeight="1">
       <c r="B674" t="s">
-        <v>6</v>
-      </c>
-      <c r="C674" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C674" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="675" ht="12.0" customHeight="1">
       <c r="B675" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="676" ht="12.0" customHeight="1">
       <c r="B676" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C676" t="s">
         <v>154</v>
@@ -6671,9 +6674,9 @@
     </row>
     <row r="677" ht="12.0" customHeight="1">
       <c r="B677" t="s">
-        <v>18</v>
-      </c>
-      <c r="C677" s="7">
+        <v>20</v>
+      </c>
+      <c r="C677" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -6681,7 +6684,7 @@
       <c r="B678" t="s">
         <v>21</v>
       </c>
-      <c r="C678" s="8" t="s">
+      <c r="C678" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6689,16 +6692,16 @@
       <c r="B679" t="s">
         <v>23</v>
       </c>
-      <c r="C679" s="8" t="s">
+      <c r="C679" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="680" ht="12.0" customHeight="1">
       <c r="B680" t="s">
+        <v>36</v>
+      </c>
+      <c r="C680" t="s">
         <v>37</v>
-      </c>
-      <c r="C680" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="681" ht="12.0" customHeight="1">
@@ -6717,15 +6720,15 @@
     </row>
     <row r="684" ht="12.0" customHeight="1">
       <c r="B684" t="s">
-        <v>10</v>
-      </c>
-      <c r="C684" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C684" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="685" ht="12.0" customHeight="1">
       <c r="B685" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C685" t="s">
         <v>33</v>
@@ -6733,20 +6736,20 @@
     </row>
     <row r="686" ht="12.0" customHeight="1">
       <c r="B686" t="s">
-        <v>6</v>
-      </c>
-      <c r="C686" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C686" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="687" ht="12.0" customHeight="1">
       <c r="B687" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="688" ht="12.0" customHeight="1">
       <c r="B688" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C688" t="s">
         <v>157</v>
@@ -6754,9 +6757,9 @@
     </row>
     <row r="689" ht="12.0" customHeight="1">
       <c r="B689" t="s">
-        <v>18</v>
-      </c>
-      <c r="C689" s="7">
+        <v>20</v>
+      </c>
+      <c r="C689" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -6764,7 +6767,7 @@
       <c r="B690" t="s">
         <v>21</v>
       </c>
-      <c r="C690" s="8" t="s">
+      <c r="C690" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6772,16 +6775,16 @@
       <c r="B691" t="s">
         <v>23</v>
       </c>
-      <c r="C691" s="8" t="s">
+      <c r="C691" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="692" ht="12.0" customHeight="1">
       <c r="B692" t="s">
+        <v>36</v>
+      </c>
+      <c r="C692" t="s">
         <v>37</v>
-      </c>
-      <c r="C692" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="693" ht="12.0" customHeight="1">
@@ -6800,15 +6803,15 @@
     </row>
     <row r="696" ht="12.0" customHeight="1">
       <c r="B696" t="s">
-        <v>10</v>
-      </c>
-      <c r="C696" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C696" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="697" ht="12.0" customHeight="1">
       <c r="B697" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C697" t="s">
         <v>33</v>
@@ -6816,20 +6819,20 @@
     </row>
     <row r="698" ht="12.0" customHeight="1">
       <c r="B698" t="s">
-        <v>6</v>
-      </c>
-      <c r="C698" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C698" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="699" ht="12.0" customHeight="1">
       <c r="B699" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="700" ht="12.0" customHeight="1">
       <c r="B700" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C700" t="s">
         <v>160</v>
@@ -6837,9 +6840,9 @@
     </row>
     <row r="701" ht="12.0" customHeight="1">
       <c r="B701" t="s">
-        <v>18</v>
-      </c>
-      <c r="C701" s="7">
+        <v>20</v>
+      </c>
+      <c r="C701" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -6847,7 +6850,7 @@
       <c r="B702" t="s">
         <v>21</v>
       </c>
-      <c r="C702" s="8" t="s">
+      <c r="C702" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6855,16 +6858,16 @@
       <c r="B703" t="s">
         <v>23</v>
       </c>
-      <c r="C703" s="8" t="s">
+      <c r="C703" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="704" ht="12.0" customHeight="1">
       <c r="B704" t="s">
+        <v>36</v>
+      </c>
+      <c r="C704" t="s">
         <v>37</v>
-      </c>
-      <c r="C704" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="705" ht="12.0" customHeight="1">
@@ -6883,15 +6886,15 @@
     </row>
     <row r="708" ht="12.0" customHeight="1">
       <c r="B708" t="s">
-        <v>10</v>
-      </c>
-      <c r="C708" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C708" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="709" ht="12.0" customHeight="1">
       <c r="B709" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C709" t="s">
         <v>33</v>
@@ -6899,20 +6902,20 @@
     </row>
     <row r="710" ht="12.0" customHeight="1">
       <c r="B710" t="s">
-        <v>6</v>
-      </c>
-      <c r="C710" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C710" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="711" ht="12.0" customHeight="1">
       <c r="B711" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="712" ht="12.0" customHeight="1">
       <c r="B712" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C712" t="s">
         <v>162</v>
@@ -6920,9 +6923,9 @@
     </row>
     <row r="713" ht="12.0" customHeight="1">
       <c r="B713" t="s">
-        <v>18</v>
-      </c>
-      <c r="C713" s="7">
+        <v>20</v>
+      </c>
+      <c r="C713" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -6930,7 +6933,7 @@
       <c r="B714" t="s">
         <v>21</v>
       </c>
-      <c r="C714" s="8" t="s">
+      <c r="C714" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6938,16 +6941,16 @@
       <c r="B715" t="s">
         <v>23</v>
       </c>
-      <c r="C715" s="8" t="s">
+      <c r="C715" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="716" ht="12.0" customHeight="1">
       <c r="B716" t="s">
+        <v>36</v>
+      </c>
+      <c r="C716" t="s">
         <v>37</v>
-      </c>
-      <c r="C716" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="717" ht="12.0" customHeight="1">
@@ -6960,21 +6963,21 @@
     </row>
     <row r="718" ht="12.0" customHeight="1"/>
     <row r="719" ht="12.0" customHeight="1">
-      <c r="A719" s="5" t="s">
+      <c r="A719" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="720" ht="12.0" customHeight="1">
       <c r="B720" t="s">
-        <v>10</v>
-      </c>
-      <c r="C720" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C720" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="721" ht="12.0" customHeight="1">
       <c r="B721" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C721" t="s">
         <v>33</v>
@@ -6982,20 +6985,20 @@
     </row>
     <row r="722" ht="12.0" customHeight="1">
       <c r="B722" t="s">
-        <v>6</v>
-      </c>
-      <c r="C722" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C722" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="723" ht="12.0" customHeight="1">
       <c r="B723" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="724" ht="12.0" customHeight="1">
       <c r="B724" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C724" t="s">
         <v>165</v>
@@ -7003,9 +7006,9 @@
     </row>
     <row r="725" ht="12.0" customHeight="1">
       <c r="B725" t="s">
-        <v>18</v>
-      </c>
-      <c r="C725" s="7">
+        <v>20</v>
+      </c>
+      <c r="C725" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -7013,7 +7016,7 @@
       <c r="B726" t="s">
         <v>21</v>
       </c>
-      <c r="C726" s="8" t="s">
+      <c r="C726" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7021,16 +7024,16 @@
       <c r="B727" t="s">
         <v>23</v>
       </c>
-      <c r="C727" s="8" t="s">
+      <c r="C727" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="728" ht="12.0" customHeight="1">
       <c r="B728" t="s">
+        <v>36</v>
+      </c>
+      <c r="C728" t="s">
         <v>37</v>
-      </c>
-      <c r="C728" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="729" ht="12.0" customHeight="1">
@@ -7049,15 +7052,15 @@
     </row>
     <row r="732" ht="12.0" customHeight="1">
       <c r="B732" t="s">
-        <v>10</v>
-      </c>
-      <c r="C732" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C732" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="733" ht="12.0" customHeight="1">
       <c r="B733" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C733" t="s">
         <v>33</v>
@@ -7065,20 +7068,20 @@
     </row>
     <row r="734" ht="12.0" customHeight="1">
       <c r="B734" t="s">
-        <v>6</v>
-      </c>
-      <c r="C734" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C734" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="735" ht="12.0" customHeight="1">
       <c r="B735" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="736" ht="12.0" customHeight="1">
       <c r="B736" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C736" t="s">
         <v>167</v>
@@ -7086,9 +7089,9 @@
     </row>
     <row r="737" ht="12.0" customHeight="1">
       <c r="B737" t="s">
-        <v>18</v>
-      </c>
-      <c r="C737" s="7">
+        <v>20</v>
+      </c>
+      <c r="C737" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -7096,7 +7099,7 @@
       <c r="B738" t="s">
         <v>21</v>
       </c>
-      <c r="C738" s="8" t="s">
+      <c r="C738" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7104,16 +7107,16 @@
       <c r="B739" t="s">
         <v>23</v>
       </c>
-      <c r="C739" s="8" t="s">
+      <c r="C739" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="740" ht="12.0" customHeight="1">
       <c r="B740" t="s">
+        <v>36</v>
+      </c>
+      <c r="C740" t="s">
         <v>37</v>
-      </c>
-      <c r="C740" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="741" ht="12.0" customHeight="1">
@@ -7126,21 +7129,21 @@
     </row>
     <row r="742" ht="12.0" customHeight="1"/>
     <row r="743" ht="12.0" customHeight="1">
-      <c r="A743" s="5" t="s">
+      <c r="A743" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="744" ht="12.0" customHeight="1">
       <c r="B744" t="s">
-        <v>10</v>
-      </c>
-      <c r="C744" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C744" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="745" ht="12.0" customHeight="1">
       <c r="B745" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C745" t="s">
         <v>33</v>
@@ -7148,20 +7151,20 @@
     </row>
     <row r="746" ht="12.0" customHeight="1">
       <c r="B746" t="s">
-        <v>6</v>
-      </c>
-      <c r="C746" s="8" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C746" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="747" ht="12.0" customHeight="1">
       <c r="B747" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="748" ht="12.0" customHeight="1">
       <c r="B748" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C748" t="s">
         <v>169</v>
@@ -7169,9 +7172,9 @@
     </row>
     <row r="749" ht="12.0" customHeight="1">
       <c r="B749" t="s">
-        <v>18</v>
-      </c>
-      <c r="C749" s="7">
+        <v>20</v>
+      </c>
+      <c r="C749" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -7179,7 +7182,7 @@
       <c r="B750" t="s">
         <v>21</v>
       </c>
-      <c r="C750" s="8" t="s">
+      <c r="C750" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7187,16 +7190,16 @@
       <c r="B751" t="s">
         <v>23</v>
       </c>
-      <c r="C751" s="8" t="s">
+      <c r="C751" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="752" ht="12.0" customHeight="1">
       <c r="B752" t="s">
+        <v>36</v>
+      </c>
+      <c r="C752" t="s">
         <v>37</v>
-      </c>
-      <c r="C752" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="753" ht="12.0" customHeight="1">
@@ -7215,36 +7218,36 @@
     </row>
     <row r="756" ht="12.0" customHeight="1">
       <c r="B756" t="s">
-        <v>10</v>
-      </c>
-      <c r="C756" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C756" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="757" ht="12.0" customHeight="1">
       <c r="B757" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C757" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="758" ht="12.0" customHeight="1">
       <c r="B758" t="s">
-        <v>6</v>
-      </c>
-      <c r="C758" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C758" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="759" ht="12.0" customHeight="1">
       <c r="B759" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="760" ht="12.0" customHeight="1">
       <c r="B760" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C760" t="s">
         <v>171</v>
@@ -7252,9 +7255,9 @@
     </row>
     <row r="761" ht="12.0" customHeight="1">
       <c r="B761" t="s">
-        <v>18</v>
-      </c>
-      <c r="C761" s="7">
+        <v>20</v>
+      </c>
+      <c r="C761" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -7262,7 +7265,7 @@
       <c r="B762" t="s">
         <v>21</v>
       </c>
-      <c r="C762" s="8" t="s">
+      <c r="C762" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7270,13 +7273,13 @@
       <c r="B763" t="s">
         <v>23</v>
       </c>
-      <c r="C763" s="8" t="s">
+      <c r="C763" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="764" ht="12.0" customHeight="1">
       <c r="B764" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C764" t="s">
         <v>109</v>
@@ -7298,36 +7301,36 @@
     </row>
     <row r="768" ht="12.0" customHeight="1">
       <c r="B768" t="s">
-        <v>10</v>
-      </c>
-      <c r="C768" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C768" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="769" ht="12.0" customHeight="1">
       <c r="B769" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C769" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="770" ht="12.0" customHeight="1">
       <c r="B770" t="s">
-        <v>6</v>
-      </c>
-      <c r="C770" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C770" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="771" ht="12.0" customHeight="1">
       <c r="B771" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="772" ht="12.0" customHeight="1">
       <c r="B772" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C772" t="s">
         <v>173</v>
@@ -7335,9 +7338,9 @@
     </row>
     <row r="773" ht="12.0" customHeight="1">
       <c r="B773" t="s">
-        <v>18</v>
-      </c>
-      <c r="C773" s="7">
+        <v>20</v>
+      </c>
+      <c r="C773" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -7345,7 +7348,7 @@
       <c r="B774" t="s">
         <v>21</v>
       </c>
-      <c r="C774" s="8" t="s">
+      <c r="C774" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7353,13 +7356,13 @@
       <c r="B775" t="s">
         <v>23</v>
       </c>
-      <c r="C775" s="8" t="s">
+      <c r="C775" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="776" ht="12.0" customHeight="1">
       <c r="B776" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C776" t="s">
         <v>109</v>
@@ -7381,36 +7384,36 @@
     </row>
     <row r="780" ht="12.0" customHeight="1">
       <c r="B780" t="s">
-        <v>10</v>
-      </c>
-      <c r="C780" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C780" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="781" ht="12.0" customHeight="1">
       <c r="B781" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C781" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="782" ht="12.0" customHeight="1">
       <c r="B782" t="s">
-        <v>6</v>
-      </c>
-      <c r="C782" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C782" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="783" ht="12.0" customHeight="1">
       <c r="B783" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="784" ht="12.0" customHeight="1">
       <c r="B784" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C784" t="s">
         <v>175</v>
@@ -7418,9 +7421,9 @@
     </row>
     <row r="785" ht="12.0" customHeight="1">
       <c r="B785" t="s">
-        <v>18</v>
-      </c>
-      <c r="C785" s="7">
+        <v>20</v>
+      </c>
+      <c r="C785" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -7428,7 +7431,7 @@
       <c r="B786" t="s">
         <v>21</v>
       </c>
-      <c r="C786" s="8" t="s">
+      <c r="C786" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7436,13 +7439,13 @@
       <c r="B787" t="s">
         <v>23</v>
       </c>
-      <c r="C787" s="8" t="s">
+      <c r="C787" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="788" ht="12.0" customHeight="1">
       <c r="B788" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C788" t="s">
         <v>109</v>
@@ -7464,36 +7467,36 @@
     </row>
     <row r="792" ht="12.0" customHeight="1">
       <c r="B792" t="s">
-        <v>10</v>
-      </c>
-      <c r="C792" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C792" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="793" ht="12.0" customHeight="1">
       <c r="B793" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C793" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="794" ht="12.0" customHeight="1">
       <c r="B794" t="s">
-        <v>6</v>
-      </c>
-      <c r="C794" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C794" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="795" ht="12.0" customHeight="1">
       <c r="B795" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="796" ht="12.0" customHeight="1">
       <c r="B796" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C796" t="s">
         <v>177</v>
@@ -7501,9 +7504,9 @@
     </row>
     <row r="797" ht="12.0" customHeight="1">
       <c r="B797" t="s">
-        <v>18</v>
-      </c>
-      <c r="C797" s="7">
+        <v>20</v>
+      </c>
+      <c r="C797" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -7511,7 +7514,7 @@
       <c r="B798" t="s">
         <v>21</v>
       </c>
-      <c r="C798" s="8" t="s">
+      <c r="C798" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7519,13 +7522,13 @@
       <c r="B799" t="s">
         <v>23</v>
       </c>
-      <c r="C799" s="8" t="s">
+      <c r="C799" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="800" ht="12.0" customHeight="1">
       <c r="B800" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C800" t="s">
         <v>109</v>
@@ -7547,36 +7550,36 @@
     </row>
     <row r="804" ht="12.0" customHeight="1">
       <c r="B804" t="s">
-        <v>10</v>
-      </c>
-      <c r="C804" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C804" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="805" ht="12.0" customHeight="1">
       <c r="B805" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C805" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="806" ht="12.0" customHeight="1">
       <c r="B806" t="s">
-        <v>6</v>
-      </c>
-      <c r="C806" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C806" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="807" ht="12.0" customHeight="1">
       <c r="B807" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="808" ht="12.0" customHeight="1">
       <c r="B808" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C808" t="s">
         <v>179</v>
@@ -7584,9 +7587,9 @@
     </row>
     <row r="809" ht="12.0" customHeight="1">
       <c r="B809" t="s">
-        <v>18</v>
-      </c>
-      <c r="C809" s="7">
+        <v>20</v>
+      </c>
+      <c r="C809" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -7594,7 +7597,7 @@
       <c r="B810" t="s">
         <v>21</v>
       </c>
-      <c r="C810" s="8" t="s">
+      <c r="C810" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7602,13 +7605,13 @@
       <c r="B811" t="s">
         <v>23</v>
       </c>
-      <c r="C811" s="8" t="s">
+      <c r="C811" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="812" ht="12.0" customHeight="1">
       <c r="B812" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C812" t="s">
         <v>109</v>
@@ -7630,36 +7633,36 @@
     </row>
     <row r="816" ht="12.0" customHeight="1">
       <c r="B816" t="s">
-        <v>10</v>
-      </c>
-      <c r="C816" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C816" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="817" ht="12.0" customHeight="1">
       <c r="B817" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C817" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="818" ht="12.0" customHeight="1">
       <c r="B818" t="s">
-        <v>6</v>
-      </c>
-      <c r="C818" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C818" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="819" ht="12.0" customHeight="1">
       <c r="B819" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="820" ht="12.0" customHeight="1">
       <c r="B820" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C820" t="s">
         <v>181</v>
@@ -7667,9 +7670,9 @@
     </row>
     <row r="821" ht="12.0" customHeight="1">
       <c r="B821" t="s">
-        <v>18</v>
-      </c>
-      <c r="C821" s="7">
+        <v>20</v>
+      </c>
+      <c r="C821" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -7677,7 +7680,7 @@
       <c r="B822" t="s">
         <v>21</v>
       </c>
-      <c r="C822" s="8" t="s">
+      <c r="C822" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7685,13 +7688,13 @@
       <c r="B823" t="s">
         <v>23</v>
       </c>
-      <c r="C823" s="8" t="s">
+      <c r="C823" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="824" ht="12.0" customHeight="1">
       <c r="B824" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C824" t="s">
         <v>109</v>
@@ -7713,36 +7716,36 @@
     </row>
     <row r="828" ht="12.0" customHeight="1">
       <c r="B828" t="s">
-        <v>10</v>
-      </c>
-      <c r="C828" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C828" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="829" ht="12.0" customHeight="1">
       <c r="B829" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C829" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="830" ht="12.0" customHeight="1">
       <c r="B830" t="s">
-        <v>6</v>
-      </c>
-      <c r="C830" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C830" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="831" ht="12.0" customHeight="1">
       <c r="B831" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="832" ht="12.0" customHeight="1">
       <c r="B832" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C832" t="s">
         <v>183</v>
@@ -7750,9 +7753,9 @@
     </row>
     <row r="833" ht="12.0" customHeight="1">
       <c r="B833" t="s">
-        <v>18</v>
-      </c>
-      <c r="C833" s="7">
+        <v>20</v>
+      </c>
+      <c r="C833" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -7760,7 +7763,7 @@
       <c r="B834" t="s">
         <v>21</v>
       </c>
-      <c r="C834" s="8" t="s">
+      <c r="C834" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7768,13 +7771,13 @@
       <c r="B835" t="s">
         <v>23</v>
       </c>
-      <c r="C835" s="8" t="s">
+      <c r="C835" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="836" ht="12.0" customHeight="1">
       <c r="B836" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C836" t="s">
         <v>109</v>
@@ -7796,36 +7799,36 @@
     </row>
     <row r="840" ht="12.0" customHeight="1">
       <c r="B840" t="s">
-        <v>10</v>
-      </c>
-      <c r="C840" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C840" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="841" ht="12.0" customHeight="1">
       <c r="B841" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C841" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="842" ht="12.0" customHeight="1">
       <c r="B842" t="s">
-        <v>6</v>
-      </c>
-      <c r="C842" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C842" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="843" ht="12.0" customHeight="1">
       <c r="B843" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="844" ht="12.0" customHeight="1">
       <c r="B844" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C844" t="s">
         <v>185</v>
@@ -7833,9 +7836,9 @@
     </row>
     <row r="845" ht="12.0" customHeight="1">
       <c r="B845" t="s">
-        <v>18</v>
-      </c>
-      <c r="C845" s="7">
+        <v>20</v>
+      </c>
+      <c r="C845" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -7843,7 +7846,7 @@
       <c r="B846" t="s">
         <v>21</v>
       </c>
-      <c r="C846" s="8" t="s">
+      <c r="C846" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7851,13 +7854,13 @@
       <c r="B847" t="s">
         <v>23</v>
       </c>
-      <c r="C847" s="8" t="s">
+      <c r="C847" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="848" ht="12.0" customHeight="1">
       <c r="B848" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C848" t="s">
         <v>109</v>
@@ -7873,42 +7876,42 @@
     </row>
     <row r="850" ht="12.0" customHeight="1"/>
     <row r="851" ht="12.0" customHeight="1">
-      <c r="A851" s="5" t="s">
+      <c r="A851" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="852" ht="12.0" customHeight="1">
       <c r="B852" t="s">
-        <v>10</v>
-      </c>
-      <c r="C852" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C852" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="853" ht="12.0" customHeight="1">
       <c r="B853" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C853" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="854" ht="12.0" customHeight="1">
       <c r="B854" t="s">
-        <v>6</v>
-      </c>
-      <c r="C854" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C854" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="855" ht="12.0" customHeight="1">
       <c r="B855" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="856" ht="12.0" customHeight="1">
       <c r="B856" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C856" t="s">
         <v>187</v>
@@ -7916,9 +7919,9 @@
     </row>
     <row r="857" ht="12.0" customHeight="1">
       <c r="B857" t="s">
-        <v>18</v>
-      </c>
-      <c r="C857" s="7">
+        <v>20</v>
+      </c>
+      <c r="C857" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -7926,7 +7929,7 @@
       <c r="B858" t="s">
         <v>21</v>
       </c>
-      <c r="C858" s="8" t="s">
+      <c r="C858" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7934,13 +7937,13 @@
       <c r="B859" t="s">
         <v>23</v>
       </c>
-      <c r="C859" s="8" t="s">
+      <c r="C859" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="860" ht="12.0" customHeight="1">
       <c r="B860" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C860" t="s">
         <v>109</v>
@@ -7956,42 +7959,42 @@
     </row>
     <row r="862" ht="12.0" customHeight="1"/>
     <row r="863" ht="12.0" customHeight="1">
-      <c r="A863" s="5" t="s">
+      <c r="A863" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="864" ht="12.0" customHeight="1">
       <c r="B864" t="s">
-        <v>10</v>
-      </c>
-      <c r="C864" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C864" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="865" ht="12.0" customHeight="1">
       <c r="B865" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C865" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="866" ht="12.0" customHeight="1">
       <c r="B866" t="s">
-        <v>6</v>
-      </c>
-      <c r="C866" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C866" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="867" ht="12.0" customHeight="1">
       <c r="B867" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="868" ht="12.0" customHeight="1">
       <c r="B868" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C868" t="s">
         <v>189</v>
@@ -7999,9 +8002,9 @@
     </row>
     <row r="869" ht="12.0" customHeight="1">
       <c r="B869" t="s">
-        <v>18</v>
-      </c>
-      <c r="C869" s="7">
+        <v>20</v>
+      </c>
+      <c r="C869" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -8009,7 +8012,7 @@
       <c r="B870" t="s">
         <v>21</v>
       </c>
-      <c r="C870" s="8" t="s">
+      <c r="C870" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8017,13 +8020,13 @@
       <c r="B871" t="s">
         <v>23</v>
       </c>
-      <c r="C871" s="8" t="s">
+      <c r="C871" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="872" ht="12.0" customHeight="1">
       <c r="B872" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C872" t="s">
         <v>109</v>
@@ -8039,42 +8042,42 @@
     </row>
     <row r="874" ht="12.0" customHeight="1"/>
     <row r="875" ht="12.0" customHeight="1">
-      <c r="A875" s="5" t="s">
+      <c r="A875" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="876" ht="12.0" customHeight="1">
       <c r="B876" t="s">
-        <v>10</v>
-      </c>
-      <c r="C876" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C876" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="877" ht="12.0" customHeight="1">
       <c r="B877" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C877" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="878" ht="12.0" customHeight="1">
       <c r="B878" t="s">
-        <v>6</v>
-      </c>
-      <c r="C878" s="8" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C878" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="879" ht="12.0" customHeight="1">
       <c r="B879" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="880" ht="12.0" customHeight="1">
       <c r="B880" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C880" t="s">
         <v>191</v>
@@ -8082,9 +8085,9 @@
     </row>
     <row r="881" ht="12.0" customHeight="1">
       <c r="B881" t="s">
-        <v>18</v>
-      </c>
-      <c r="C881" s="7">
+        <v>20</v>
+      </c>
+      <c r="C881" s="9">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -8092,7 +8095,7 @@
       <c r="B882" t="s">
         <v>21</v>
       </c>
-      <c r="C882" s="8" t="s">
+      <c r="C882" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8100,13 +8103,13 @@
       <c r="B883" t="s">
         <v>23</v>
       </c>
-      <c r="C883" s="8" t="s">
+      <c r="C883" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="884" ht="12.0" customHeight="1">
       <c r="B884" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C884" t="s">
         <v>109</v>
@@ -8128,43 +8131,43 @@
     </row>
     <row r="888" ht="12.0" customHeight="1">
       <c r="B888" t="s">
-        <v>10</v>
-      </c>
-      <c r="C888" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C888" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="889" ht="12.0" customHeight="1">
       <c r="B889" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C889" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="890" ht="12.0" customHeight="1">
       <c r="B890" t="s">
-        <v>6</v>
-      </c>
-      <c r="C890" s="8">
+        <v>2</v>
+      </c>
+      <c r="C890" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="891" ht="12.0" customHeight="1">
       <c r="B891" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="892" ht="12.0" customHeight="1">
       <c r="B892" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C892" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="893" ht="12.0" customHeight="1">
-      <c r="B893" s="14" t="s">
+      <c r="B893" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C893" s="12" t="s">
@@ -8172,11 +8175,11 @@
       </c>
     </row>
     <row r="894" ht="41.25" customHeight="1">
-      <c r="A894" s="15"/>
-      <c r="B894" s="16" t="s">
+      <c r="A894" s="16"/>
+      <c r="B894" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C894" s="17" t="s">
+      <c r="C894" s="18" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8188,43 +8191,43 @@
     </row>
     <row r="897" ht="12.0" customHeight="1">
       <c r="B897" t="s">
-        <v>10</v>
-      </c>
-      <c r="C897" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C897" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="898" ht="12.0" customHeight="1">
       <c r="B898" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C898" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="899" ht="12.0" customHeight="1">
       <c r="B899" t="s">
-        <v>6</v>
-      </c>
-      <c r="C899" s="8">
+        <v>2</v>
+      </c>
+      <c r="C899" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="900" ht="12.0" customHeight="1">
       <c r="B900" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="901" ht="12.0" customHeight="1">
       <c r="B901" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C901" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="902" ht="12.0" customHeight="1">
-      <c r="B902" s="14" t="s">
+      <c r="B902" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C902" s="12" t="s">
@@ -8232,10 +8235,10 @@
       </c>
     </row>
     <row r="903" ht="12.0" customHeight="1">
-      <c r="B903" s="16" t="s">
+      <c r="B903" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C903" s="17" t="s">
+      <c r="C903" s="18" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8247,43 +8250,43 @@
     </row>
     <row r="906" ht="12.0" customHeight="1">
       <c r="B906" t="s">
-        <v>10</v>
-      </c>
-      <c r="C906" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C906" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="907" ht="12.0" customHeight="1">
       <c r="B907" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C907" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="908" ht="12.0" customHeight="1">
       <c r="B908" t="s">
-        <v>6</v>
-      </c>
-      <c r="C908" s="8">
+        <v>2</v>
+      </c>
+      <c r="C908" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="909" ht="12.0" customHeight="1">
       <c r="B909" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="910" ht="12.0" customHeight="1">
       <c r="B910" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C910" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="911" ht="12.0" customHeight="1">
-      <c r="B911" s="14" t="s">
+      <c r="B911" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C911" s="12" t="s">
@@ -8291,10 +8294,10 @@
       </c>
     </row>
     <row r="912" ht="12.0" customHeight="1">
-      <c r="B912" s="16" t="s">
+      <c r="B912" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C912" s="17" t="s">
+      <c r="C912" s="18" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8306,43 +8309,43 @@
     </row>
     <row r="915" ht="12.0" customHeight="1">
       <c r="B915" t="s">
-        <v>10</v>
-      </c>
-      <c r="C915" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C915" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="916" ht="12.0" customHeight="1">
       <c r="B916" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C916" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="917" ht="12.0" customHeight="1">
       <c r="B917" t="s">
-        <v>6</v>
-      </c>
-      <c r="C917" s="8">
+        <v>2</v>
+      </c>
+      <c r="C917" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="918" ht="12.0" customHeight="1">
       <c r="B918" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="919" ht="12.0" customHeight="1">
       <c r="B919" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C919" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="920" ht="12.0" customHeight="1">
-      <c r="B920" s="14" t="s">
+      <c r="B920" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C920" s="12" t="s">
@@ -8350,10 +8353,10 @@
       </c>
     </row>
     <row r="921" ht="12.0" customHeight="1">
-      <c r="B921" s="16" t="s">
+      <c r="B921" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C921" s="17" t="s">
+      <c r="C921" s="18" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8365,43 +8368,43 @@
     </row>
     <row r="924" ht="12.0" customHeight="1">
       <c r="B924" t="s">
-        <v>10</v>
-      </c>
-      <c r="C924" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C924" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="925" ht="12.0" customHeight="1">
       <c r="B925" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C925" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="926" ht="12.0" customHeight="1">
       <c r="B926" t="s">
-        <v>6</v>
-      </c>
-      <c r="C926" s="8">
+        <v>2</v>
+      </c>
+      <c r="C926" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="927" ht="12.0" customHeight="1">
       <c r="B927" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="928" ht="12.0" customHeight="1">
       <c r="B928" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C928" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="929" ht="12.0" customHeight="1">
-      <c r="B929" s="14" t="s">
+      <c r="B929" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C929" s="12" t="s">
@@ -8409,10 +8412,10 @@
       </c>
     </row>
     <row r="930" ht="12.0" customHeight="1">
-      <c r="B930" s="16" t="s">
+      <c r="B930" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C930" s="17" t="s">
+      <c r="C930" s="18" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8424,43 +8427,43 @@
     </row>
     <row r="933" ht="12.0" customHeight="1">
       <c r="B933" t="s">
-        <v>10</v>
-      </c>
-      <c r="C933" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C933" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="934" ht="12.0" customHeight="1">
       <c r="B934" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C934" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="935" ht="12.0" customHeight="1">
       <c r="B935" t="s">
-        <v>6</v>
-      </c>
-      <c r="C935" s="8">
+        <v>2</v>
+      </c>
+      <c r="C935" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="936" ht="12.0" customHeight="1">
       <c r="B936" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="937" ht="12.0" customHeight="1">
       <c r="B937" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C937" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="938" ht="12.0" customHeight="1">
-      <c r="B938" s="14" t="s">
+      <c r="B938" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C938" s="12" t="s">
@@ -8468,10 +8471,10 @@
       </c>
     </row>
     <row r="939" ht="12.0" customHeight="1">
-      <c r="B939" s="16" t="s">
+      <c r="B939" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C939" s="17" t="s">
+      <c r="C939" s="18" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8483,43 +8486,43 @@
     </row>
     <row r="942" ht="12.0" customHeight="1">
       <c r="B942" t="s">
-        <v>10</v>
-      </c>
-      <c r="C942" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C942" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="943" ht="12.0" customHeight="1">
       <c r="B943" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C943" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="944" ht="12.0" customHeight="1">
       <c r="B944" t="s">
-        <v>6</v>
-      </c>
-      <c r="C944" s="8">
+        <v>2</v>
+      </c>
+      <c r="C944" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="945" ht="12.0" customHeight="1">
       <c r="B945" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="946" ht="12.0" customHeight="1">
       <c r="B946" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C946" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="947" ht="12.0" customHeight="1">
-      <c r="B947" s="14" t="s">
+      <c r="B947" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C947" s="12" t="s">
@@ -8527,10 +8530,10 @@
       </c>
     </row>
     <row r="948" ht="12.0" customHeight="1">
-      <c r="B948" s="16" t="s">
+      <c r="B948" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C948" s="17" t="s">
+      <c r="C948" s="18" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8542,43 +8545,43 @@
     </row>
     <row r="951" ht="12.0" customHeight="1">
       <c r="B951" t="s">
-        <v>10</v>
-      </c>
-      <c r="C951" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C951" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="952" ht="12.0" customHeight="1">
       <c r="B952" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C952" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="953" ht="12.0" customHeight="1">
       <c r="B953" t="s">
-        <v>6</v>
-      </c>
-      <c r="C953" s="8">
+        <v>2</v>
+      </c>
+      <c r="C953" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="954" ht="12.0" customHeight="1">
       <c r="B954" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="955" ht="12.0" customHeight="1">
       <c r="B955" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C955" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="956" ht="12.0" customHeight="1">
-      <c r="B956" s="14" t="s">
+      <c r="B956" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C956" s="12" t="s">
@@ -8586,10 +8589,10 @@
       </c>
     </row>
     <row r="957" ht="12.0" customHeight="1">
-      <c r="B957" s="16" t="s">
+      <c r="B957" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C957" s="17" t="s">
+      <c r="C957" s="18" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8601,43 +8604,43 @@
     </row>
     <row r="960" ht="12.0" customHeight="1">
       <c r="B960" t="s">
-        <v>10</v>
-      </c>
-      <c r="C960" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C960" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="961" ht="12.0" customHeight="1">
       <c r="B961" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C961" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="962" ht="12.0" customHeight="1">
       <c r="B962" t="s">
-        <v>6</v>
-      </c>
-      <c r="C962" s="8">
+        <v>2</v>
+      </c>
+      <c r="C962" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="963" ht="12.0" customHeight="1">
       <c r="B963" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="964" ht="12.0" customHeight="1">
       <c r="B964" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C964" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="965" ht="12.0" customHeight="1">
-      <c r="B965" s="14" t="s">
+      <c r="B965" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C965" s="12" t="s">
@@ -8645,10 +8648,10 @@
       </c>
     </row>
     <row r="966" ht="12.0" customHeight="1">
-      <c r="B966" s="16" t="s">
+      <c r="B966" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C966" s="17" t="s">
+      <c r="C966" s="18" t="s">
         <v>216</v>
       </c>
     </row>
@@ -8660,43 +8663,43 @@
     </row>
     <row r="969" ht="12.0" customHeight="1">
       <c r="B969" t="s">
-        <v>10</v>
-      </c>
-      <c r="C969" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C969" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="970" ht="12.0" customHeight="1">
       <c r="B970" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C970" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="971" ht="12.0" customHeight="1">
       <c r="B971" t="s">
-        <v>6</v>
-      </c>
-      <c r="C971" s="8">
+        <v>2</v>
+      </c>
+      <c r="C971" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="972" ht="12.0" customHeight="1">
       <c r="B972" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="973" ht="12.0" customHeight="1">
       <c r="B973" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C973" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="974" ht="12.0" customHeight="1">
-      <c r="B974" s="14" t="s">
+      <c r="B974" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C974" s="12" t="s">
@@ -8704,10 +8707,10 @@
       </c>
     </row>
     <row r="975" ht="12.0" customHeight="1">
-      <c r="B975" s="16" t="s">
+      <c r="B975" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C975" s="17" t="s">
+      <c r="C975" s="18" t="s">
         <v>216</v>
       </c>
     </row>
@@ -8719,43 +8722,43 @@
     </row>
     <row r="978" ht="12.0" customHeight="1">
       <c r="B978" t="s">
-        <v>10</v>
-      </c>
-      <c r="C978" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C978" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="979" ht="12.0" customHeight="1">
       <c r="B979" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C979" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="980" ht="12.0" customHeight="1">
       <c r="B980" t="s">
-        <v>6</v>
-      </c>
-      <c r="C980" s="8">
+        <v>2</v>
+      </c>
+      <c r="C980" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="981" ht="12.0" customHeight="1">
       <c r="B981" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="982" ht="12.0" customHeight="1">
       <c r="B982" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C982" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="983" ht="12.0" customHeight="1">
-      <c r="B983" s="14" t="s">
+      <c r="B983" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C983" s="12" t="s">
@@ -8763,10 +8766,10 @@
       </c>
     </row>
     <row r="984" ht="12.0" customHeight="1">
-      <c r="B984" s="16" t="s">
+      <c r="B984" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C984" s="17" t="s">
+      <c r="C984" s="18" t="s">
         <v>216</v>
       </c>
     </row>
@@ -8778,43 +8781,43 @@
     </row>
     <row r="987" ht="12.0" customHeight="1">
       <c r="B987" t="s">
-        <v>10</v>
-      </c>
-      <c r="C987" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C987" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="988" ht="12.0" customHeight="1">
       <c r="B988" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C988" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="989" ht="12.0" customHeight="1">
       <c r="B989" t="s">
-        <v>6</v>
-      </c>
-      <c r="C989" s="8">
+        <v>2</v>
+      </c>
+      <c r="C989" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="990" ht="12.0" customHeight="1">
       <c r="B990" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="991" ht="12.0" customHeight="1">
       <c r="B991" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C991" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="992" ht="12.0" customHeight="1">
-      <c r="B992" s="14" t="s">
+      <c r="B992" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C992" s="12" t="s">
@@ -8822,10 +8825,10 @@
       </c>
     </row>
     <row r="993" ht="12.0" customHeight="1">
-      <c r="B993" s="16" t="s">
+      <c r="B993" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C993" s="17" t="s">
+      <c r="C993" s="18" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8837,43 +8840,43 @@
     </row>
     <row r="996" ht="12.0" customHeight="1">
       <c r="B996" t="s">
-        <v>10</v>
-      </c>
-      <c r="C996" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C996" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="997" ht="12.0" customHeight="1">
       <c r="B997" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C997" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="998" ht="12.0" customHeight="1">
       <c r="B998" t="s">
-        <v>6</v>
-      </c>
-      <c r="C998" s="8">
+        <v>2</v>
+      </c>
+      <c r="C998" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="999" ht="12.0" customHeight="1">
       <c r="B999" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1000" ht="12.0" customHeight="1">
       <c r="B1000" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1000" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="1001" ht="12.0" customHeight="1">
-      <c r="B1001" s="14" t="s">
+      <c r="B1001" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C1001" s="12" t="s">
@@ -8881,10 +8884,10 @@
       </c>
     </row>
     <row r="1002" ht="12.0" customHeight="1">
-      <c r="B1002" s="16" t="s">
+      <c r="B1002" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C1002" s="17" t="s">
+      <c r="C1002" s="18" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8896,43 +8899,43 @@
     </row>
     <row r="1005" ht="12.0" customHeight="1">
       <c r="B1005" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1005" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1005" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="1006" ht="12.0" customHeight="1">
       <c r="B1006" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1006" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1007" ht="12.0" customHeight="1">
       <c r="B1007" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1007" s="8">
+        <v>2</v>
+      </c>
+      <c r="C1007" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="1008" ht="12.0" customHeight="1">
       <c r="B1008" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1009" ht="12.0" customHeight="1">
       <c r="B1009" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1009" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="1010" ht="12.0" customHeight="1">
-      <c r="B1010" s="14" t="s">
+      <c r="B1010" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C1010" s="12" t="s">
@@ -8940,10 +8943,10 @@
       </c>
     </row>
     <row r="1011" ht="12.0" customHeight="1">
-      <c r="B1011" s="16" t="s">
+      <c r="B1011" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C1011" s="17" t="s">
+      <c r="C1011" s="18" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8955,43 +8958,43 @@
     </row>
     <row r="1014" ht="12.0" customHeight="1">
       <c r="B1014" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1014" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1014" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="1015" ht="12.0" customHeight="1">
       <c r="B1015" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1015" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1016" ht="12.0" customHeight="1">
       <c r="B1016" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1016" s="8">
+        <v>2</v>
+      </c>
+      <c r="C1016" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="1017" ht="12.0" customHeight="1">
       <c r="B1017" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1018" ht="12.0" customHeight="1">
       <c r="B1018" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1018" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1018" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="1019" ht="12.0" customHeight="1">
-      <c r="B1019" s="14" t="s">
+      <c r="B1019" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C1019" s="12" t="s">
@@ -8999,10 +9002,10 @@
       </c>
     </row>
     <row r="1020" ht="12.0" customHeight="1">
-      <c r="B1020" s="16" t="s">
+      <c r="B1020" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C1020" s="17" t="s">
+      <c r="C1020" s="18" t="s">
         <v>224</v>
       </c>
     </row>
